--- a/additional_experiments/experiment_tasks.xlsx
+++ b/additional_experiments/experiment_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozzafar\LINX\additional_experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33706DA8-1F91-44FE-9C6E-DBBA69BB92EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087290C6-30E7-49DB-9958-C2C6AFF71B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-2340" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6090" yWindow="2295" windowWidth="25560" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,8 +447,8 @@
   </sheetPr>
   <dimension ref="A1:X807"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/additional_experiments/experiment_tasks.xlsx
+++ b/additional_experiments/experiment_tasks.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozzafar\LINX\additional_experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087290C6-30E7-49DB-9958-C2C6AFF71B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97180F7-A2CA-4D59-92D4-772C1234B83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="2295" windowWidth="25560" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$E$7</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>LDX</t>
   </si>
@@ -34,22 +34,13 @@
     <t>netflix.tsv</t>
   </si>
   <si>
-    <t>Task Instance</t>
-  </si>
-  <si>
     <t>Paraphrased Task Instance</t>
-  </si>
-  <si>
-    <t>Meta-Tsk id</t>
   </si>
   <si>
     <t>Dataset</t>
   </si>
   <si>
     <t>flights.tsv</t>
-  </si>
-  <si>
-    <t>salaries.tsv</t>
   </si>
   <si>
     <t xml:space="preserve">BEGIN CHILDREN &lt;A1,A2,A3&gt;
@@ -123,14 +114,17 @@
     <t>Show insights on apps with extremely high or extremely low rating</t>
   </si>
   <si>
-    <t>2 ??</t>
+    <t>Meta-Task id</t>
+  </si>
+  <si>
+    <t>Task id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -152,12 +146,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -207,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -222,9 +210,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -445,36 +430,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X807"/>
+  <dimension ref="A1:X806"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="55.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="55.81640625" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -496,19 +478,21 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="91" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="6" t="s">
-        <v>19</v>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -530,19 +514,21 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:24" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="91" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -564,19 +550,21 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:24" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="91" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
+      <c r="B4" s="3">
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6" t="s">
-        <v>18</v>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -598,19 +586,21 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:24" ht="102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="104" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="3">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -632,19 +622,21 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
     </row>
-    <row r="6" spans="1:24" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="65" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="6" t="s">
-        <v>15</v>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -666,19 +658,21 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
     </row>
-    <row r="7" spans="1:24" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="91" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="6" t="s">
-        <v>20</v>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -700,16 +694,11 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
     </row>
-    <row r="8" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
+    <row r="8" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -730,8 +719,7 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
     </row>
-    <row r="9" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -756,8 +744,7 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
     </row>
-    <row r="10" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -782,8 +769,7 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
     </row>
-    <row r="11" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -808,8 +794,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
     </row>
-    <row r="12" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -834,8 +819,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>
-    <row r="13" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -860,8 +844,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
     </row>
-    <row r="14" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+    <row r="14" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -886,8 +869,7 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
     </row>
-    <row r="15" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -912,8 +894,7 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
     </row>
-    <row r="16" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -938,8 +919,7 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
     </row>
-    <row r="17" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+    <row r="17" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -964,8 +944,7 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
     </row>
-    <row r="18" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+    <row r="18" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -990,8 +969,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
     </row>
-    <row r="19" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+    <row r="19" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1016,8 +994,7 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
     </row>
-    <row r="20" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+    <row r="20" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1042,8 +1019,7 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
     </row>
-    <row r="21" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+    <row r="21" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1068,8 +1044,7 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
     </row>
-    <row r="22" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
+    <row r="22" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1094,8 +1069,7 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
     </row>
-    <row r="23" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
+    <row r="23" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1120,8 +1094,7 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
     </row>
-    <row r="24" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
+    <row r="24" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1146,8 +1119,7 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
     </row>
-    <row r="25" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
+    <row r="25" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1172,8 +1144,7 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
     </row>
-    <row r="26" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
+    <row r="26" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1198,8 +1169,7 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
     </row>
-    <row r="27" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
+    <row r="27" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1224,8 +1194,7 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
     </row>
-    <row r="28" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
+    <row r="28" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1250,8 +1219,7 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
     </row>
-    <row r="29" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
+    <row r="29" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1276,8 +1244,7 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
     </row>
-    <row r="30" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
+    <row r="30" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1302,8 +1269,7 @@
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
     </row>
-    <row r="31" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
+    <row r="31" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1328,8 +1294,7 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
     </row>
-    <row r="32" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
+    <row r="32" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1354,8 +1319,7 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
     </row>
-    <row r="33" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
+    <row r="33" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1380,8 +1344,7 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
     </row>
-    <row r="34" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
+    <row r="34" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1406,8 +1369,7 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
     </row>
-    <row r="35" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
+    <row r="35" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1432,8 +1394,7 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
     </row>
-    <row r="36" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
+    <row r="36" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1458,8 +1419,7 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
     </row>
-    <row r="37" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
+    <row r="37" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1484,8 +1444,7 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
     </row>
-    <row r="38" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
+    <row r="38" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1510,8 +1469,7 @@
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
     </row>
-    <row r="39" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
+    <row r="39" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1536,8 +1494,7 @@
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
     </row>
-    <row r="40" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
+    <row r="40" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1562,8 +1519,7 @@
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
     </row>
-    <row r="41" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
+    <row r="41" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1588,8 +1544,7 @@
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
     </row>
-    <row r="42" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
+    <row r="42" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1614,8 +1569,7 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
     </row>
-    <row r="43" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
+    <row r="43" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1640,8 +1594,7 @@
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
     </row>
-    <row r="44" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
+    <row r="44" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1666,8 +1619,7 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
     </row>
-    <row r="45" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
+    <row r="45" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1692,8 +1644,7 @@
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
     </row>
-    <row r="46" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
+    <row r="46" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1718,8 +1669,7 @@
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
     </row>
-    <row r="47" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
+    <row r="47" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1744,8 +1694,7 @@
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
     </row>
-    <row r="48" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
+    <row r="48" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1770,8 +1719,7 @@
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
     </row>
-    <row r="49" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
+    <row r="49" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -1796,8 +1744,7 @@
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
     </row>
-    <row r="50" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
+    <row r="50" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1822,8 +1769,7 @@
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
     </row>
-    <row r="51" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
+    <row r="51" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1848,8 +1794,7 @@
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
     </row>
-    <row r="52" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
+    <row r="52" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -1874,8 +1819,7 @@
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
     </row>
-    <row r="53" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
+    <row r="53" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1900,8 +1844,7 @@
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
     </row>
-    <row r="54" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
+    <row r="54" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -1926,8 +1869,7 @@
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
     </row>
-    <row r="55" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
+    <row r="55" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1952,8 +1894,7 @@
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
     </row>
-    <row r="56" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
+    <row r="56" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1978,8 +1919,7 @@
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
     </row>
-    <row r="57" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
+    <row r="57" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -2004,8 +1944,7 @@
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
     </row>
-    <row r="58" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
+    <row r="58" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -2030,8 +1969,7 @@
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
     </row>
-    <row r="59" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
+    <row r="59" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -2056,8 +1994,7 @@
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
     </row>
-    <row r="60" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
+    <row r="60" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -2082,8 +2019,7 @@
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
     </row>
-    <row r="61" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
+    <row r="61" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -2108,8 +2044,7 @@
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
     </row>
-    <row r="62" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
+    <row r="62" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -2134,8 +2069,7 @@
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
     </row>
-    <row r="63" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="4"/>
+    <row r="63" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -2160,8 +2094,7 @@
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
     </row>
-    <row r="64" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="4"/>
+    <row r="64" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -2186,8 +2119,7 @@
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
     </row>
-    <row r="65" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="4"/>
+    <row r="65" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -2212,8 +2144,7 @@
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
     </row>
-    <row r="66" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
+    <row r="66" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -2238,8 +2169,7 @@
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
     </row>
-    <row r="67" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="4"/>
+    <row r="67" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -2264,8 +2194,7 @@
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
     </row>
-    <row r="68" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="4"/>
+    <row r="68" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -2290,8 +2219,7 @@
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
     </row>
-    <row r="69" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="4"/>
+    <row r="69" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -2316,8 +2244,7 @@
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
     </row>
-    <row r="70" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="4"/>
+    <row r="70" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -2342,8 +2269,7 @@
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
     </row>
-    <row r="71" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="4"/>
+    <row r="71" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -2368,8 +2294,7 @@
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
     </row>
-    <row r="72" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="4"/>
+    <row r="72" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -2394,8 +2319,7 @@
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
     </row>
-    <row r="73" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="4"/>
+    <row r="73" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -2420,8 +2344,7 @@
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
     </row>
-    <row r="74" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="4"/>
+    <row r="74" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -2446,8 +2369,7 @@
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
     </row>
-    <row r="75" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
+    <row r="75" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -2472,8 +2394,7 @@
       <c r="W75" s="4"/>
       <c r="X75" s="4"/>
     </row>
-    <row r="76" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="4"/>
+    <row r="76" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -2498,8 +2419,7 @@
       <c r="W76" s="4"/>
       <c r="X76" s="4"/>
     </row>
-    <row r="77" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="4"/>
+    <row r="77" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -2524,8 +2444,7 @@
       <c r="W77" s="4"/>
       <c r="X77" s="4"/>
     </row>
-    <row r="78" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
+    <row r="78" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -2550,8 +2469,7 @@
       <c r="W78" s="4"/>
       <c r="X78" s="4"/>
     </row>
-    <row r="79" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="4"/>
+    <row r="79" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -2576,8 +2494,7 @@
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
     </row>
-    <row r="80" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="4"/>
+    <row r="80" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -2602,8 +2519,7 @@
       <c r="W80" s="4"/>
       <c r="X80" s="4"/>
     </row>
-    <row r="81" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="4"/>
+    <row r="81" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -2628,8 +2544,7 @@
       <c r="W81" s="4"/>
       <c r="X81" s="4"/>
     </row>
-    <row r="82" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="4"/>
+    <row r="82" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -2654,8 +2569,7 @@
       <c r="W82" s="4"/>
       <c r="X82" s="4"/>
     </row>
-    <row r="83" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="4"/>
+    <row r="83" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -2680,8 +2594,7 @@
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
     </row>
-    <row r="84" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="4"/>
+    <row r="84" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -2706,8 +2619,7 @@
       <c r="W84" s="4"/>
       <c r="X84" s="4"/>
     </row>
-    <row r="85" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="4"/>
+    <row r="85" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -2732,8 +2644,7 @@
       <c r="W85" s="4"/>
       <c r="X85" s="4"/>
     </row>
-    <row r="86" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="4"/>
+    <row r="86" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -2758,8 +2669,7 @@
       <c r="W86" s="4"/>
       <c r="X86" s="4"/>
     </row>
-    <row r="87" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="4"/>
+    <row r="87" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -2784,8 +2694,7 @@
       <c r="W87" s="4"/>
       <c r="X87" s="4"/>
     </row>
-    <row r="88" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="4"/>
+    <row r="88" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -2810,8 +2719,7 @@
       <c r="W88" s="4"/>
       <c r="X88" s="4"/>
     </row>
-    <row r="89" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="4"/>
+    <row r="89" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -2836,8 +2744,7 @@
       <c r="W89" s="4"/>
       <c r="X89" s="4"/>
     </row>
-    <row r="90" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="4"/>
+    <row r="90" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -2862,8 +2769,7 @@
       <c r="W90" s="4"/>
       <c r="X90" s="4"/>
     </row>
-    <row r="91" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="4"/>
+    <row r="91" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -2888,8 +2794,7 @@
       <c r="W91" s="4"/>
       <c r="X91" s="4"/>
     </row>
-    <row r="92" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="4"/>
+    <row r="92" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -2914,8 +2819,7 @@
       <c r="W92" s="4"/>
       <c r="X92" s="4"/>
     </row>
-    <row r="93" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="4"/>
+    <row r="93" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -2940,8 +2844,7 @@
       <c r="W93" s="4"/>
       <c r="X93" s="4"/>
     </row>
-    <row r="94" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="4"/>
+    <row r="94" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -2966,8 +2869,7 @@
       <c r="W94" s="4"/>
       <c r="X94" s="4"/>
     </row>
-    <row r="95" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="4"/>
+    <row r="95" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -2992,8 +2894,7 @@
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
     </row>
-    <row r="96" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="4"/>
+    <row r="96" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -3018,8 +2919,7 @@
       <c r="W96" s="4"/>
       <c r="X96" s="4"/>
     </row>
-    <row r="97" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="4"/>
+    <row r="97" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -3044,8 +2944,7 @@
       <c r="W97" s="4"/>
       <c r="X97" s="4"/>
     </row>
-    <row r="98" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="4"/>
+    <row r="98" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -3070,8 +2969,7 @@
       <c r="W98" s="4"/>
       <c r="X98" s="4"/>
     </row>
-    <row r="99" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="4"/>
+    <row r="99" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -3096,8 +2994,7 @@
       <c r="W99" s="4"/>
       <c r="X99" s="4"/>
     </row>
-    <row r="100" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="4"/>
+    <row r="100" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -3122,8 +3019,7 @@
       <c r="W100" s="4"/>
       <c r="X100" s="4"/>
     </row>
-    <row r="101" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="4"/>
+    <row r="101" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -3148,8 +3044,7 @@
       <c r="W101" s="4"/>
       <c r="X101" s="4"/>
     </row>
-    <row r="102" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="4"/>
+    <row r="102" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -3174,8 +3069,7 @@
       <c r="W102" s="4"/>
       <c r="X102" s="4"/>
     </row>
-    <row r="103" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="4"/>
+    <row r="103" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -3200,8 +3094,7 @@
       <c r="W103" s="4"/>
       <c r="X103" s="4"/>
     </row>
-    <row r="104" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="4"/>
+    <row r="104" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -3226,8 +3119,7 @@
       <c r="W104" s="4"/>
       <c r="X104" s="4"/>
     </row>
-    <row r="105" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="4"/>
+    <row r="105" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -3252,8 +3144,7 @@
       <c r="W105" s="4"/>
       <c r="X105" s="4"/>
     </row>
-    <row r="106" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="4"/>
+    <row r="106" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -3278,8 +3169,7 @@
       <c r="W106" s="4"/>
       <c r="X106" s="4"/>
     </row>
-    <row r="107" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="4"/>
+    <row r="107" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -3304,8 +3194,7 @@
       <c r="W107" s="4"/>
       <c r="X107" s="4"/>
     </row>
-    <row r="108" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="4"/>
+    <row r="108" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -3330,8 +3219,7 @@
       <c r="W108" s="4"/>
       <c r="X108" s="4"/>
     </row>
-    <row r="109" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="4"/>
+    <row r="109" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -3356,8 +3244,7 @@
       <c r="W109" s="4"/>
       <c r="X109" s="4"/>
     </row>
-    <row r="110" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="4"/>
+    <row r="110" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -3382,8 +3269,7 @@
       <c r="W110" s="4"/>
       <c r="X110" s="4"/>
     </row>
-    <row r="111" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="4"/>
+    <row r="111" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -3408,8 +3294,7 @@
       <c r="W111" s="4"/>
       <c r="X111" s="4"/>
     </row>
-    <row r="112" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="4"/>
+    <row r="112" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -3434,8 +3319,7 @@
       <c r="W112" s="4"/>
       <c r="X112" s="4"/>
     </row>
-    <row r="113" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="4"/>
+    <row r="113" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -3460,8 +3344,7 @@
       <c r="W113" s="4"/>
       <c r="X113" s="4"/>
     </row>
-    <row r="114" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="4"/>
+    <row r="114" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -3486,8 +3369,7 @@
       <c r="W114" s="4"/>
       <c r="X114" s="4"/>
     </row>
-    <row r="115" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="4"/>
+    <row r="115" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -3512,8 +3394,7 @@
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
     </row>
-    <row r="116" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="4"/>
+    <row r="116" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -3538,8 +3419,7 @@
       <c r="W116" s="4"/>
       <c r="X116" s="4"/>
     </row>
-    <row r="117" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="4"/>
+    <row r="117" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -3564,8 +3444,7 @@
       <c r="W117" s="4"/>
       <c r="X117" s="4"/>
     </row>
-    <row r="118" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="4"/>
+    <row r="118" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -3590,8 +3469,7 @@
       <c r="W118" s="4"/>
       <c r="X118" s="4"/>
     </row>
-    <row r="119" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="4"/>
+    <row r="119" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -3616,8 +3494,7 @@
       <c r="W119" s="4"/>
       <c r="X119" s="4"/>
     </row>
-    <row r="120" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="4"/>
+    <row r="120" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -3642,8 +3519,7 @@
       <c r="W120" s="4"/>
       <c r="X120" s="4"/>
     </row>
-    <row r="121" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="4"/>
+    <row r="121" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -3668,8 +3544,7 @@
       <c r="W121" s="4"/>
       <c r="X121" s="4"/>
     </row>
-    <row r="122" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="4"/>
+    <row r="122" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -3694,8 +3569,7 @@
       <c r="W122" s="4"/>
       <c r="X122" s="4"/>
     </row>
-    <row r="123" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="4"/>
+    <row r="123" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -3720,8 +3594,7 @@
       <c r="W123" s="4"/>
       <c r="X123" s="4"/>
     </row>
-    <row r="124" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="4"/>
+    <row r="124" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -3746,8 +3619,7 @@
       <c r="W124" s="4"/>
       <c r="X124" s="4"/>
     </row>
-    <row r="125" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="4"/>
+    <row r="125" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -3772,8 +3644,7 @@
       <c r="W125" s="4"/>
       <c r="X125" s="4"/>
     </row>
-    <row r="126" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="4"/>
+    <row r="126" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -3798,8 +3669,7 @@
       <c r="W126" s="4"/>
       <c r="X126" s="4"/>
     </row>
-    <row r="127" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="4"/>
+    <row r="127" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -3824,8 +3694,7 @@
       <c r="W127" s="4"/>
       <c r="X127" s="4"/>
     </row>
-    <row r="128" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="4"/>
+    <row r="128" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -3850,8 +3719,7 @@
       <c r="W128" s="4"/>
       <c r="X128" s="4"/>
     </row>
-    <row r="129" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="4"/>
+    <row r="129" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -3876,8 +3744,7 @@
       <c r="W129" s="4"/>
       <c r="X129" s="4"/>
     </row>
-    <row r="130" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="4"/>
+    <row r="130" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -3902,8 +3769,7 @@
       <c r="W130" s="4"/>
       <c r="X130" s="4"/>
     </row>
-    <row r="131" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="4"/>
+    <row r="131" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -3928,8 +3794,7 @@
       <c r="W131" s="4"/>
       <c r="X131" s="4"/>
     </row>
-    <row r="132" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="4"/>
+    <row r="132" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -3954,8 +3819,7 @@
       <c r="W132" s="4"/>
       <c r="X132" s="4"/>
     </row>
-    <row r="133" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="4"/>
+    <row r="133" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -3980,8 +3844,7 @@
       <c r="W133" s="4"/>
       <c r="X133" s="4"/>
     </row>
-    <row r="134" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="4"/>
+    <row r="134" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -4006,8 +3869,7 @@
       <c r="W134" s="4"/>
       <c r="X134" s="4"/>
     </row>
-    <row r="135" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="4"/>
+    <row r="135" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -4032,8 +3894,7 @@
       <c r="W135" s="4"/>
       <c r="X135" s="4"/>
     </row>
-    <row r="136" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="4"/>
+    <row r="136" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -4058,8 +3919,7 @@
       <c r="W136" s="4"/>
       <c r="X136" s="4"/>
     </row>
-    <row r="137" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="4"/>
+    <row r="137" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -4084,8 +3944,7 @@
       <c r="W137" s="4"/>
       <c r="X137" s="4"/>
     </row>
-    <row r="138" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="4"/>
+    <row r="138" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -4110,8 +3969,7 @@
       <c r="W138" s="4"/>
       <c r="X138" s="4"/>
     </row>
-    <row r="139" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="4"/>
+    <row r="139" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -4136,8 +3994,7 @@
       <c r="W139" s="4"/>
       <c r="X139" s="4"/>
     </row>
-    <row r="140" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="4"/>
+    <row r="140" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -4162,8 +4019,7 @@
       <c r="W140" s="4"/>
       <c r="X140" s="4"/>
     </row>
-    <row r="141" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="4"/>
+    <row r="141" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -4188,8 +4044,7 @@
       <c r="W141" s="4"/>
       <c r="X141" s="4"/>
     </row>
-    <row r="142" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="4"/>
+    <row r="142" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -4214,8 +4069,7 @@
       <c r="W142" s="4"/>
       <c r="X142" s="4"/>
     </row>
-    <row r="143" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="4"/>
+    <row r="143" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -4240,8 +4094,7 @@
       <c r="W143" s="4"/>
       <c r="X143" s="4"/>
     </row>
-    <row r="144" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="4"/>
+    <row r="144" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -4266,8 +4119,7 @@
       <c r="W144" s="4"/>
       <c r="X144" s="4"/>
     </row>
-    <row r="145" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="4"/>
+    <row r="145" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -4292,8 +4144,7 @@
       <c r="W145" s="4"/>
       <c r="X145" s="4"/>
     </row>
-    <row r="146" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="4"/>
+    <row r="146" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -4318,8 +4169,7 @@
       <c r="W146" s="4"/>
       <c r="X146" s="4"/>
     </row>
-    <row r="147" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="4"/>
+    <row r="147" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -4344,8 +4194,7 @@
       <c r="W147" s="4"/>
       <c r="X147" s="4"/>
     </row>
-    <row r="148" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="4"/>
+    <row r="148" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -4370,8 +4219,7 @@
       <c r="W148" s="4"/>
       <c r="X148" s="4"/>
     </row>
-    <row r="149" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="4"/>
+    <row r="149" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -4396,8 +4244,7 @@
       <c r="W149" s="4"/>
       <c r="X149" s="4"/>
     </row>
-    <row r="150" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="4"/>
+    <row r="150" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -4422,8 +4269,7 @@
       <c r="W150" s="4"/>
       <c r="X150" s="4"/>
     </row>
-    <row r="151" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="4"/>
+    <row r="151" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -4448,8 +4294,7 @@
       <c r="W151" s="4"/>
       <c r="X151" s="4"/>
     </row>
-    <row r="152" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="4"/>
+    <row r="152" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -4474,8 +4319,7 @@
       <c r="W152" s="4"/>
       <c r="X152" s="4"/>
     </row>
-    <row r="153" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="4"/>
+    <row r="153" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -4500,8 +4344,7 @@
       <c r="W153" s="4"/>
       <c r="X153" s="4"/>
     </row>
-    <row r="154" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="4"/>
+    <row r="154" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -4526,8 +4369,7 @@
       <c r="W154" s="4"/>
       <c r="X154" s="4"/>
     </row>
-    <row r="155" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="4"/>
+    <row r="155" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -4552,8 +4394,7 @@
       <c r="W155" s="4"/>
       <c r="X155" s="4"/>
     </row>
-    <row r="156" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="4"/>
+    <row r="156" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -4578,8 +4419,7 @@
       <c r="W156" s="4"/>
       <c r="X156" s="4"/>
     </row>
-    <row r="157" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="4"/>
+    <row r="157" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -4604,8 +4444,7 @@
       <c r="W157" s="4"/>
       <c r="X157" s="4"/>
     </row>
-    <row r="158" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="4"/>
+    <row r="158" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -4630,8 +4469,7 @@
       <c r="W158" s="4"/>
       <c r="X158" s="4"/>
     </row>
-    <row r="159" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="4"/>
+    <row r="159" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -4656,8 +4494,7 @@
       <c r="W159" s="4"/>
       <c r="X159" s="4"/>
     </row>
-    <row r="160" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A160" s="4"/>
+    <row r="160" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -4682,8 +4519,7 @@
       <c r="W160" s="4"/>
       <c r="X160" s="4"/>
     </row>
-    <row r="161" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="4"/>
+    <row r="161" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -4708,8 +4544,7 @@
       <c r="W161" s="4"/>
       <c r="X161" s="4"/>
     </row>
-    <row r="162" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="4"/>
+    <row r="162" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
@@ -4734,8 +4569,7 @@
       <c r="W162" s="4"/>
       <c r="X162" s="4"/>
     </row>
-    <row r="163" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A163" s="4"/>
+    <row r="163" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -4760,8 +4594,7 @@
       <c r="W163" s="4"/>
       <c r="X163" s="4"/>
     </row>
-    <row r="164" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A164" s="4"/>
+    <row r="164" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
@@ -4786,8 +4619,7 @@
       <c r="W164" s="4"/>
       <c r="X164" s="4"/>
     </row>
-    <row r="165" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="4"/>
+    <row r="165" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -4812,8 +4644,7 @@
       <c r="W165" s="4"/>
       <c r="X165" s="4"/>
     </row>
-    <row r="166" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="4"/>
+    <row r="166" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -4838,8 +4669,7 @@
       <c r="W166" s="4"/>
       <c r="X166" s="4"/>
     </row>
-    <row r="167" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="4"/>
+    <row r="167" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -4864,8 +4694,7 @@
       <c r="W167" s="4"/>
       <c r="X167" s="4"/>
     </row>
-    <row r="168" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="4"/>
+    <row r="168" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -4890,8 +4719,7 @@
       <c r="W168" s="4"/>
       <c r="X168" s="4"/>
     </row>
-    <row r="169" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="4"/>
+    <row r="169" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -4916,8 +4744,7 @@
       <c r="W169" s="4"/>
       <c r="X169" s="4"/>
     </row>
-    <row r="170" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A170" s="4"/>
+    <row r="170" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
@@ -4942,8 +4769,7 @@
       <c r="W170" s="4"/>
       <c r="X170" s="4"/>
     </row>
-    <row r="171" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="4"/>
+    <row r="171" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -4968,8 +4794,7 @@
       <c r="W171" s="4"/>
       <c r="X171" s="4"/>
     </row>
-    <row r="172" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A172" s="4"/>
+    <row r="172" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
@@ -4994,8 +4819,7 @@
       <c r="W172" s="4"/>
       <c r="X172" s="4"/>
     </row>
-    <row r="173" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A173" s="4"/>
+    <row r="173" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -5020,8 +4844,7 @@
       <c r="W173" s="4"/>
       <c r="X173" s="4"/>
     </row>
-    <row r="174" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A174" s="4"/>
+    <row r="174" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
@@ -5046,8 +4869,7 @@
       <c r="W174" s="4"/>
       <c r="X174" s="4"/>
     </row>
-    <row r="175" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A175" s="4"/>
+    <row r="175" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -5072,8 +4894,7 @@
       <c r="W175" s="4"/>
       <c r="X175" s="4"/>
     </row>
-    <row r="176" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A176" s="4"/>
+    <row r="176" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
@@ -5098,8 +4919,7 @@
       <c r="W176" s="4"/>
       <c r="X176" s="4"/>
     </row>
-    <row r="177" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A177" s="4"/>
+    <row r="177" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
@@ -5124,8 +4944,7 @@
       <c r="W177" s="4"/>
       <c r="X177" s="4"/>
     </row>
-    <row r="178" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="4"/>
+    <row r="178" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
@@ -5150,8 +4969,7 @@
       <c r="W178" s="4"/>
       <c r="X178" s="4"/>
     </row>
-    <row r="179" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="4"/>
+    <row r="179" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
@@ -5176,8 +4994,7 @@
       <c r="W179" s="4"/>
       <c r="X179" s="4"/>
     </row>
-    <row r="180" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A180" s="4"/>
+    <row r="180" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
@@ -5202,8 +5019,7 @@
       <c r="W180" s="4"/>
       <c r="X180" s="4"/>
     </row>
-    <row r="181" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="4"/>
+    <row r="181" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
@@ -5228,8 +5044,7 @@
       <c r="W181" s="4"/>
       <c r="X181" s="4"/>
     </row>
-    <row r="182" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A182" s="4"/>
+    <row r="182" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
@@ -5254,8 +5069,7 @@
       <c r="W182" s="4"/>
       <c r="X182" s="4"/>
     </row>
-    <row r="183" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A183" s="4"/>
+    <row r="183" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -5280,8 +5094,7 @@
       <c r="W183" s="4"/>
       <c r="X183" s="4"/>
     </row>
-    <row r="184" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A184" s="4"/>
+    <row r="184" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
@@ -5306,8 +5119,7 @@
       <c r="W184" s="4"/>
       <c r="X184" s="4"/>
     </row>
-    <row r="185" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A185" s="4"/>
+    <row r="185" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
@@ -5332,8 +5144,7 @@
       <c r="W185" s="4"/>
       <c r="X185" s="4"/>
     </row>
-    <row r="186" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A186" s="4"/>
+    <row r="186" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
@@ -5358,8 +5169,7 @@
       <c r="W186" s="4"/>
       <c r="X186" s="4"/>
     </row>
-    <row r="187" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A187" s="4"/>
+    <row r="187" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -5384,8 +5194,7 @@
       <c r="W187" s="4"/>
       <c r="X187" s="4"/>
     </row>
-    <row r="188" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="4"/>
+    <row r="188" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
@@ -5410,8 +5219,7 @@
       <c r="W188" s="4"/>
       <c r="X188" s="4"/>
     </row>
-    <row r="189" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="4"/>
+    <row r="189" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
@@ -5436,8 +5244,7 @@
       <c r="W189" s="4"/>
       <c r="X189" s="4"/>
     </row>
-    <row r="190" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="4"/>
+    <row r="190" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
@@ -5462,8 +5269,7 @@
       <c r="W190" s="4"/>
       <c r="X190" s="4"/>
     </row>
-    <row r="191" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="4"/>
+    <row r="191" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -5488,8 +5294,7 @@
       <c r="W191" s="4"/>
       <c r="X191" s="4"/>
     </row>
-    <row r="192" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A192" s="4"/>
+    <row r="192" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
@@ -5514,8 +5319,7 @@
       <c r="W192" s="4"/>
       <c r="X192" s="4"/>
     </row>
-    <row r="193" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A193" s="4"/>
+    <row r="193" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -5540,8 +5344,7 @@
       <c r="W193" s="4"/>
       <c r="X193" s="4"/>
     </row>
-    <row r="194" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="4"/>
+    <row r="194" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
@@ -5566,8 +5369,7 @@
       <c r="W194" s="4"/>
       <c r="X194" s="4"/>
     </row>
-    <row r="195" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A195" s="4"/>
+    <row r="195" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -5592,8 +5394,7 @@
       <c r="W195" s="4"/>
       <c r="X195" s="4"/>
     </row>
-    <row r="196" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A196" s="4"/>
+    <row r="196" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
@@ -5618,8 +5419,7 @@
       <c r="W196" s="4"/>
       <c r="X196" s="4"/>
     </row>
-    <row r="197" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="4"/>
+    <row r="197" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
@@ -5644,8 +5444,7 @@
       <c r="W197" s="4"/>
       <c r="X197" s="4"/>
     </row>
-    <row r="198" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A198" s="4"/>
+    <row r="198" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
@@ -5670,8 +5469,7 @@
       <c r="W198" s="4"/>
       <c r="X198" s="4"/>
     </row>
-    <row r="199" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="4"/>
+    <row r="199" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -5696,8 +5494,7 @@
       <c r="W199" s="4"/>
       <c r="X199" s="4"/>
     </row>
-    <row r="200" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="4"/>
+    <row r="200" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
@@ -5722,8 +5519,7 @@
       <c r="W200" s="4"/>
       <c r="X200" s="4"/>
     </row>
-    <row r="201" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="4"/>
+    <row r="201" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
@@ -5748,8 +5544,7 @@
       <c r="W201" s="4"/>
       <c r="X201" s="4"/>
     </row>
-    <row r="202" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A202" s="4"/>
+    <row r="202" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
@@ -5774,8 +5569,7 @@
       <c r="W202" s="4"/>
       <c r="X202" s="4"/>
     </row>
-    <row r="203" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A203" s="4"/>
+    <row r="203" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -5800,8 +5594,7 @@
       <c r="W203" s="4"/>
       <c r="X203" s="4"/>
     </row>
-    <row r="204" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A204" s="4"/>
+    <row r="204" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
@@ -5826,8 +5619,7 @@
       <c r="W204" s="4"/>
       <c r="X204" s="4"/>
     </row>
-    <row r="205" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A205" s="4"/>
+    <row r="205" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
@@ -5852,8 +5644,7 @@
       <c r="W205" s="4"/>
       <c r="X205" s="4"/>
     </row>
-    <row r="206" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A206" s="4"/>
+    <row r="206" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
@@ -5878,8 +5669,7 @@
       <c r="W206" s="4"/>
       <c r="X206" s="4"/>
     </row>
-    <row r="207" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A207" s="4"/>
+    <row r="207" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
@@ -5904,8 +5694,7 @@
       <c r="W207" s="4"/>
       <c r="X207" s="4"/>
     </row>
-    <row r="208" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A208" s="4"/>
+    <row r="208" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
@@ -5930,8 +5719,7 @@
       <c r="W208" s="4"/>
       <c r="X208" s="4"/>
     </row>
-    <row r="209" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A209" s="4"/>
+    <row r="209" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
@@ -5956,8 +5744,7 @@
       <c r="W209" s="4"/>
       <c r="X209" s="4"/>
     </row>
-    <row r="210" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A210" s="4"/>
+    <row r="210" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -5982,8 +5769,7 @@
       <c r="W210" s="4"/>
       <c r="X210" s="4"/>
     </row>
-    <row r="211" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A211" s="4"/>
+    <row r="211" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -6008,8 +5794,7 @@
       <c r="W211" s="4"/>
       <c r="X211" s="4"/>
     </row>
-    <row r="212" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A212" s="4"/>
+    <row r="212" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
@@ -6034,8 +5819,7 @@
       <c r="W212" s="4"/>
       <c r="X212" s="4"/>
     </row>
-    <row r="213" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A213" s="4"/>
+    <row r="213" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
@@ -6060,8 +5844,7 @@
       <c r="W213" s="4"/>
       <c r="X213" s="4"/>
     </row>
-    <row r="214" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A214" s="4"/>
+    <row r="214" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
@@ -6086,8 +5869,7 @@
       <c r="W214" s="4"/>
       <c r="X214" s="4"/>
     </row>
-    <row r="215" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A215" s="4"/>
+    <row r="215" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -6112,8 +5894,7 @@
       <c r="W215" s="4"/>
       <c r="X215" s="4"/>
     </row>
-    <row r="216" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A216" s="4"/>
+    <row r="216" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -6138,8 +5919,7 @@
       <c r="W216" s="4"/>
       <c r="X216" s="4"/>
     </row>
-    <row r="217" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A217" s="4"/>
+    <row r="217" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -6164,8 +5944,7 @@
       <c r="W217" s="4"/>
       <c r="X217" s="4"/>
     </row>
-    <row r="218" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A218" s="4"/>
+    <row r="218" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
@@ -6190,8 +5969,7 @@
       <c r="W218" s="4"/>
       <c r="X218" s="4"/>
     </row>
-    <row r="219" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A219" s="4"/>
+    <row r="219" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -6216,8 +5994,7 @@
       <c r="W219" s="4"/>
       <c r="X219" s="4"/>
     </row>
-    <row r="220" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A220" s="4"/>
+    <row r="220" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
@@ -6242,8 +6019,7 @@
       <c r="W220" s="4"/>
       <c r="X220" s="4"/>
     </row>
-    <row r="221" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A221" s="4"/>
+    <row r="221" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
@@ -6268,8 +6044,7 @@
       <c r="W221" s="4"/>
       <c r="X221" s="4"/>
     </row>
-    <row r="222" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A222" s="4"/>
+    <row r="222" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
@@ -6294,8 +6069,7 @@
       <c r="W222" s="4"/>
       <c r="X222" s="4"/>
     </row>
-    <row r="223" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A223" s="4"/>
+    <row r="223" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
@@ -6320,8 +6094,7 @@
       <c r="W223" s="4"/>
       <c r="X223" s="4"/>
     </row>
-    <row r="224" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A224" s="4"/>
+    <row r="224" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
@@ -6346,8 +6119,7 @@
       <c r="W224" s="4"/>
       <c r="X224" s="4"/>
     </row>
-    <row r="225" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A225" s="4"/>
+    <row r="225" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
@@ -6372,8 +6144,7 @@
       <c r="W225" s="4"/>
       <c r="X225" s="4"/>
     </row>
-    <row r="226" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A226" s="4"/>
+    <row r="226" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
@@ -6398,8 +6169,7 @@
       <c r="W226" s="4"/>
       <c r="X226" s="4"/>
     </row>
-    <row r="227" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A227" s="4"/>
+    <row r="227" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
@@ -6424,8 +6194,7 @@
       <c r="W227" s="4"/>
       <c r="X227" s="4"/>
     </row>
-    <row r="228" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A228" s="4"/>
+    <row r="228" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
@@ -6450,8 +6219,7 @@
       <c r="W228" s="4"/>
       <c r="X228" s="4"/>
     </row>
-    <row r="229" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A229" s="4"/>
+    <row r="229" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
@@ -6476,8 +6244,7 @@
       <c r="W229" s="4"/>
       <c r="X229" s="4"/>
     </row>
-    <row r="230" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A230" s="4"/>
+    <row r="230" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
@@ -6502,8 +6269,7 @@
       <c r="W230" s="4"/>
       <c r="X230" s="4"/>
     </row>
-    <row r="231" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A231" s="4"/>
+    <row r="231" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
@@ -6528,8 +6294,7 @@
       <c r="W231" s="4"/>
       <c r="X231" s="4"/>
     </row>
-    <row r="232" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A232" s="4"/>
+    <row r="232" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
@@ -6554,8 +6319,7 @@
       <c r="W232" s="4"/>
       <c r="X232" s="4"/>
     </row>
-    <row r="233" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A233" s="4"/>
+    <row r="233" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
@@ -6580,8 +6344,7 @@
       <c r="W233" s="4"/>
       <c r="X233" s="4"/>
     </row>
-    <row r="234" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A234" s="4"/>
+    <row r="234" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
@@ -6606,8 +6369,7 @@
       <c r="W234" s="4"/>
       <c r="X234" s="4"/>
     </row>
-    <row r="235" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A235" s="4"/>
+    <row r="235" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
@@ -6632,8 +6394,7 @@
       <c r="W235" s="4"/>
       <c r="X235" s="4"/>
     </row>
-    <row r="236" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A236" s="4"/>
+    <row r="236" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
@@ -6658,8 +6419,7 @@
       <c r="W236" s="4"/>
       <c r="X236" s="4"/>
     </row>
-    <row r="237" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A237" s="4"/>
+    <row r="237" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
@@ -6684,8 +6444,7 @@
       <c r="W237" s="4"/>
       <c r="X237" s="4"/>
     </row>
-    <row r="238" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A238" s="4"/>
+    <row r="238" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
@@ -6710,8 +6469,7 @@
       <c r="W238" s="4"/>
       <c r="X238" s="4"/>
     </row>
-    <row r="239" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A239" s="4"/>
+    <row r="239" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -6736,8 +6494,7 @@
       <c r="W239" s="4"/>
       <c r="X239" s="4"/>
     </row>
-    <row r="240" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A240" s="4"/>
+    <row r="240" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -6762,8 +6519,7 @@
       <c r="W240" s="4"/>
       <c r="X240" s="4"/>
     </row>
-    <row r="241" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A241" s="4"/>
+    <row r="241" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -6788,8 +6544,7 @@
       <c r="W241" s="4"/>
       <c r="X241" s="4"/>
     </row>
-    <row r="242" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A242" s="4"/>
+    <row r="242" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -6814,8 +6569,7 @@
       <c r="W242" s="4"/>
       <c r="X242" s="4"/>
     </row>
-    <row r="243" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A243" s="4"/>
+    <row r="243" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -6840,8 +6594,7 @@
       <c r="W243" s="4"/>
       <c r="X243" s="4"/>
     </row>
-    <row r="244" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A244" s="4"/>
+    <row r="244" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -6866,8 +6619,7 @@
       <c r="W244" s="4"/>
       <c r="X244" s="4"/>
     </row>
-    <row r="245" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A245" s="4"/>
+    <row r="245" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -6892,8 +6644,7 @@
       <c r="W245" s="4"/>
       <c r="X245" s="4"/>
     </row>
-    <row r="246" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A246" s="4"/>
+    <row r="246" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -6918,8 +6669,7 @@
       <c r="W246" s="4"/>
       <c r="X246" s="4"/>
     </row>
-    <row r="247" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A247" s="4"/>
+    <row r="247" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -6944,8 +6694,7 @@
       <c r="W247" s="4"/>
       <c r="X247" s="4"/>
     </row>
-    <row r="248" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A248" s="4"/>
+    <row r="248" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -6970,8 +6719,7 @@
       <c r="W248" s="4"/>
       <c r="X248" s="4"/>
     </row>
-    <row r="249" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A249" s="4"/>
+    <row r="249" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -6996,8 +6744,7 @@
       <c r="W249" s="4"/>
       <c r="X249" s="4"/>
     </row>
-    <row r="250" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A250" s="4"/>
+    <row r="250" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -7022,8 +6769,7 @@
       <c r="W250" s="4"/>
       <c r="X250" s="4"/>
     </row>
-    <row r="251" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A251" s="4"/>
+    <row r="251" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -7048,8 +6794,7 @@
       <c r="W251" s="4"/>
       <c r="X251" s="4"/>
     </row>
-    <row r="252" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A252" s="4"/>
+    <row r="252" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -7074,8 +6819,7 @@
       <c r="W252" s="4"/>
       <c r="X252" s="4"/>
     </row>
-    <row r="253" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A253" s="4"/>
+    <row r="253" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -7100,8 +6844,7 @@
       <c r="W253" s="4"/>
       <c r="X253" s="4"/>
     </row>
-    <row r="254" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A254" s="4"/>
+    <row r="254" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -7126,8 +6869,7 @@
       <c r="W254" s="4"/>
       <c r="X254" s="4"/>
     </row>
-    <row r="255" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A255" s="4"/>
+    <row r="255" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -7152,8 +6894,7 @@
       <c r="W255" s="4"/>
       <c r="X255" s="4"/>
     </row>
-    <row r="256" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A256" s="4"/>
+    <row r="256" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -7178,8 +6919,7 @@
       <c r="W256" s="4"/>
       <c r="X256" s="4"/>
     </row>
-    <row r="257" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A257" s="4"/>
+    <row r="257" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -7204,8 +6944,7 @@
       <c r="W257" s="4"/>
       <c r="X257" s="4"/>
     </row>
-    <row r="258" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A258" s="4"/>
+    <row r="258" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -7230,8 +6969,7 @@
       <c r="W258" s="4"/>
       <c r="X258" s="4"/>
     </row>
-    <row r="259" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A259" s="4"/>
+    <row r="259" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -7256,8 +6994,7 @@
       <c r="W259" s="4"/>
       <c r="X259" s="4"/>
     </row>
-    <row r="260" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A260" s="4"/>
+    <row r="260" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -7282,8 +7019,7 @@
       <c r="W260" s="4"/>
       <c r="X260" s="4"/>
     </row>
-    <row r="261" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A261" s="4"/>
+    <row r="261" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -7308,8 +7044,7 @@
       <c r="W261" s="4"/>
       <c r="X261" s="4"/>
     </row>
-    <row r="262" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A262" s="4"/>
+    <row r="262" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -7334,8 +7069,7 @@
       <c r="W262" s="4"/>
       <c r="X262" s="4"/>
     </row>
-    <row r="263" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A263" s="4"/>
+    <row r="263" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -7360,8 +7094,7 @@
       <c r="W263" s="4"/>
       <c r="X263" s="4"/>
     </row>
-    <row r="264" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A264" s="4"/>
+    <row r="264" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -7386,8 +7119,7 @@
       <c r="W264" s="4"/>
       <c r="X264" s="4"/>
     </row>
-    <row r="265" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A265" s="4"/>
+    <row r="265" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -7412,8 +7144,7 @@
       <c r="W265" s="4"/>
       <c r="X265" s="4"/>
     </row>
-    <row r="266" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A266" s="4"/>
+    <row r="266" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -7438,8 +7169,7 @@
       <c r="W266" s="4"/>
       <c r="X266" s="4"/>
     </row>
-    <row r="267" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A267" s="4"/>
+    <row r="267" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -7464,8 +7194,7 @@
       <c r="W267" s="4"/>
       <c r="X267" s="4"/>
     </row>
-    <row r="268" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A268" s="4"/>
+    <row r="268" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
@@ -7490,8 +7219,7 @@
       <c r="W268" s="4"/>
       <c r="X268" s="4"/>
     </row>
-    <row r="269" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A269" s="4"/>
+    <row r="269" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
@@ -7516,8 +7244,7 @@
       <c r="W269" s="4"/>
       <c r="X269" s="4"/>
     </row>
-    <row r="270" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A270" s="4"/>
+    <row r="270" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
@@ -7542,8 +7269,7 @@
       <c r="W270" s="4"/>
       <c r="X270" s="4"/>
     </row>
-    <row r="271" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A271" s="4"/>
+    <row r="271" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -7568,8 +7294,7 @@
       <c r="W271" s="4"/>
       <c r="X271" s="4"/>
     </row>
-    <row r="272" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A272" s="4"/>
+    <row r="272" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
@@ -7594,8 +7319,7 @@
       <c r="W272" s="4"/>
       <c r="X272" s="4"/>
     </row>
-    <row r="273" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A273" s="4"/>
+    <row r="273" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
@@ -7620,8 +7344,7 @@
       <c r="W273" s="4"/>
       <c r="X273" s="4"/>
     </row>
-    <row r="274" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A274" s="4"/>
+    <row r="274" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
@@ -7646,8 +7369,7 @@
       <c r="W274" s="4"/>
       <c r="X274" s="4"/>
     </row>
-    <row r="275" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A275" s="4"/>
+    <row r="275" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
@@ -7672,8 +7394,7 @@
       <c r="W275" s="4"/>
       <c r="X275" s="4"/>
     </row>
-    <row r="276" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A276" s="4"/>
+    <row r="276" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
@@ -7698,8 +7419,7 @@
       <c r="W276" s="4"/>
       <c r="X276" s="4"/>
     </row>
-    <row r="277" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A277" s="4"/>
+    <row r="277" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
@@ -7724,8 +7444,7 @@
       <c r="W277" s="4"/>
       <c r="X277" s="4"/>
     </row>
-    <row r="278" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A278" s="4"/>
+    <row r="278" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
@@ -7750,8 +7469,7 @@
       <c r="W278" s="4"/>
       <c r="X278" s="4"/>
     </row>
-    <row r="279" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A279" s="4"/>
+    <row r="279" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
@@ -7776,8 +7494,7 @@
       <c r="W279" s="4"/>
       <c r="X279" s="4"/>
     </row>
-    <row r="280" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A280" s="4"/>
+    <row r="280" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
@@ -7802,8 +7519,7 @@
       <c r="W280" s="4"/>
       <c r="X280" s="4"/>
     </row>
-    <row r="281" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A281" s="4"/>
+    <row r="281" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
@@ -7828,8 +7544,7 @@
       <c r="W281" s="4"/>
       <c r="X281" s="4"/>
     </row>
-    <row r="282" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A282" s="4"/>
+    <row r="282" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
@@ -7854,8 +7569,7 @@
       <c r="W282" s="4"/>
       <c r="X282" s="4"/>
     </row>
-    <row r="283" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A283" s="4"/>
+    <row r="283" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
@@ -7880,8 +7594,7 @@
       <c r="W283" s="4"/>
       <c r="X283" s="4"/>
     </row>
-    <row r="284" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A284" s="4"/>
+    <row r="284" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
@@ -7906,8 +7619,7 @@
       <c r="W284" s="4"/>
       <c r="X284" s="4"/>
     </row>
-    <row r="285" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A285" s="4"/>
+    <row r="285" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
@@ -7932,8 +7644,7 @@
       <c r="W285" s="4"/>
       <c r="X285" s="4"/>
     </row>
-    <row r="286" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A286" s="4"/>
+    <row r="286" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
@@ -7958,8 +7669,7 @@
       <c r="W286" s="4"/>
       <c r="X286" s="4"/>
     </row>
-    <row r="287" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A287" s="4"/>
+    <row r="287" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
@@ -7984,8 +7694,7 @@
       <c r="W287" s="4"/>
       <c r="X287" s="4"/>
     </row>
-    <row r="288" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A288" s="4"/>
+    <row r="288" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
@@ -8010,8 +7719,7 @@
       <c r="W288" s="4"/>
       <c r="X288" s="4"/>
     </row>
-    <row r="289" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A289" s="4"/>
+    <row r="289" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
@@ -8036,8 +7744,7 @@
       <c r="W289" s="4"/>
       <c r="X289" s="4"/>
     </row>
-    <row r="290" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A290" s="4"/>
+    <row r="290" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
@@ -8062,8 +7769,7 @@
       <c r="W290" s="4"/>
       <c r="X290" s="4"/>
     </row>
-    <row r="291" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A291" s="4"/>
+    <row r="291" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
@@ -8088,8 +7794,7 @@
       <c r="W291" s="4"/>
       <c r="X291" s="4"/>
     </row>
-    <row r="292" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A292" s="4"/>
+    <row r="292" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
@@ -8114,8 +7819,7 @@
       <c r="W292" s="4"/>
       <c r="X292" s="4"/>
     </row>
-    <row r="293" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A293" s="4"/>
+    <row r="293" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
@@ -8140,8 +7844,7 @@
       <c r="W293" s="4"/>
       <c r="X293" s="4"/>
     </row>
-    <row r="294" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A294" s="4"/>
+    <row r="294" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
@@ -8166,8 +7869,7 @@
       <c r="W294" s="4"/>
       <c r="X294" s="4"/>
     </row>
-    <row r="295" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A295" s="4"/>
+    <row r="295" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
@@ -8192,8 +7894,7 @@
       <c r="W295" s="4"/>
       <c r="X295" s="4"/>
     </row>
-    <row r="296" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A296" s="4"/>
+    <row r="296" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
@@ -8218,8 +7919,7 @@
       <c r="W296" s="4"/>
       <c r="X296" s="4"/>
     </row>
-    <row r="297" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A297" s="4"/>
+    <row r="297" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
@@ -8244,8 +7944,7 @@
       <c r="W297" s="4"/>
       <c r="X297" s="4"/>
     </row>
-    <row r="298" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A298" s="4"/>
+    <row r="298" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
@@ -8270,8 +7969,7 @@
       <c r="W298" s="4"/>
       <c r="X298" s="4"/>
     </row>
-    <row r="299" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A299" s="4"/>
+    <row r="299" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
@@ -8296,8 +7994,7 @@
       <c r="W299" s="4"/>
       <c r="X299" s="4"/>
     </row>
-    <row r="300" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A300" s="4"/>
+    <row r="300" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
@@ -8322,8 +8019,7 @@
       <c r="W300" s="4"/>
       <c r="X300" s="4"/>
     </row>
-    <row r="301" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A301" s="4"/>
+    <row r="301" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
@@ -8348,8 +8044,7 @@
       <c r="W301" s="4"/>
       <c r="X301" s="4"/>
     </row>
-    <row r="302" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A302" s="4"/>
+    <row r="302" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
@@ -8374,8 +8069,7 @@
       <c r="W302" s="4"/>
       <c r="X302" s="4"/>
     </row>
-    <row r="303" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A303" s="4"/>
+    <row r="303" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
@@ -8400,8 +8094,7 @@
       <c r="W303" s="4"/>
       <c r="X303" s="4"/>
     </row>
-    <row r="304" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A304" s="4"/>
+    <row r="304" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
@@ -8426,8 +8119,7 @@
       <c r="W304" s="4"/>
       <c r="X304" s="4"/>
     </row>
-    <row r="305" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A305" s="4"/>
+    <row r="305" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
@@ -8452,8 +8144,7 @@
       <c r="W305" s="4"/>
       <c r="X305" s="4"/>
     </row>
-    <row r="306" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A306" s="4"/>
+    <row r="306" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
@@ -8478,8 +8169,7 @@
       <c r="W306" s="4"/>
       <c r="X306" s="4"/>
     </row>
-    <row r="307" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A307" s="4"/>
+    <row r="307" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
@@ -8504,8 +8194,7 @@
       <c r="W307" s="4"/>
       <c r="X307" s="4"/>
     </row>
-    <row r="308" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A308" s="4"/>
+    <row r="308" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
@@ -8530,8 +8219,7 @@
       <c r="W308" s="4"/>
       <c r="X308" s="4"/>
     </row>
-    <row r="309" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A309" s="4"/>
+    <row r="309" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
@@ -8556,8 +8244,7 @@
       <c r="W309" s="4"/>
       <c r="X309" s="4"/>
     </row>
-    <row r="310" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A310" s="4"/>
+    <row r="310" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
@@ -8582,8 +8269,7 @@
       <c r="W310" s="4"/>
       <c r="X310" s="4"/>
     </row>
-    <row r="311" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A311" s="4"/>
+    <row r="311" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
@@ -8608,8 +8294,7 @@
       <c r="W311" s="4"/>
       <c r="X311" s="4"/>
     </row>
-    <row r="312" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A312" s="4"/>
+    <row r="312" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
@@ -8634,8 +8319,7 @@
       <c r="W312" s="4"/>
       <c r="X312" s="4"/>
     </row>
-    <row r="313" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A313" s="4"/>
+    <row r="313" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
@@ -8660,8 +8344,7 @@
       <c r="W313" s="4"/>
       <c r="X313" s="4"/>
     </row>
-    <row r="314" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A314" s="4"/>
+    <row r="314" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
@@ -8686,8 +8369,7 @@
       <c r="W314" s="4"/>
       <c r="X314" s="4"/>
     </row>
-    <row r="315" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A315" s="4"/>
+    <row r="315" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
@@ -8712,8 +8394,7 @@
       <c r="W315" s="4"/>
       <c r="X315" s="4"/>
     </row>
-    <row r="316" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A316" s="4"/>
+    <row r="316" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
@@ -8738,8 +8419,7 @@
       <c r="W316" s="4"/>
       <c r="X316" s="4"/>
     </row>
-    <row r="317" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A317" s="4"/>
+    <row r="317" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
@@ -8764,8 +8444,7 @@
       <c r="W317" s="4"/>
       <c r="X317" s="4"/>
     </row>
-    <row r="318" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A318" s="4"/>
+    <row r="318" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
@@ -8790,8 +8469,7 @@
       <c r="W318" s="4"/>
       <c r="X318" s="4"/>
     </row>
-    <row r="319" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A319" s="4"/>
+    <row r="319" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
@@ -8816,8 +8494,7 @@
       <c r="W319" s="4"/>
       <c r="X319" s="4"/>
     </row>
-    <row r="320" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A320" s="4"/>
+    <row r="320" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
@@ -8842,8 +8519,7 @@
       <c r="W320" s="4"/>
       <c r="X320" s="4"/>
     </row>
-    <row r="321" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A321" s="4"/>
+    <row r="321" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
@@ -8868,8 +8544,7 @@
       <c r="W321" s="4"/>
       <c r="X321" s="4"/>
     </row>
-    <row r="322" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A322" s="4"/>
+    <row r="322" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
@@ -8894,8 +8569,7 @@
       <c r="W322" s="4"/>
       <c r="X322" s="4"/>
     </row>
-    <row r="323" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A323" s="4"/>
+    <row r="323" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
@@ -8920,8 +8594,7 @@
       <c r="W323" s="4"/>
       <c r="X323" s="4"/>
     </row>
-    <row r="324" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A324" s="4"/>
+    <row r="324" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
@@ -8946,8 +8619,7 @@
       <c r="W324" s="4"/>
       <c r="X324" s="4"/>
     </row>
-    <row r="325" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A325" s="4"/>
+    <row r="325" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
@@ -8972,8 +8644,7 @@
       <c r="W325" s="4"/>
       <c r="X325" s="4"/>
     </row>
-    <row r="326" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A326" s="4"/>
+    <row r="326" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
@@ -8998,8 +8669,7 @@
       <c r="W326" s="4"/>
       <c r="X326" s="4"/>
     </row>
-    <row r="327" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A327" s="4"/>
+    <row r="327" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
@@ -9024,8 +8694,7 @@
       <c r="W327" s="4"/>
       <c r="X327" s="4"/>
     </row>
-    <row r="328" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A328" s="4"/>
+    <row r="328" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
@@ -9050,8 +8719,7 @@
       <c r="W328" s="4"/>
       <c r="X328" s="4"/>
     </row>
-    <row r="329" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A329" s="4"/>
+    <row r="329" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
@@ -9076,8 +8744,7 @@
       <c r="W329" s="4"/>
       <c r="X329" s="4"/>
     </row>
-    <row r="330" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A330" s="4"/>
+    <row r="330" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
@@ -9102,8 +8769,7 @@
       <c r="W330" s="4"/>
       <c r="X330" s="4"/>
     </row>
-    <row r="331" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A331" s="4"/>
+    <row r="331" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
@@ -9128,8 +8794,7 @@
       <c r="W331" s="4"/>
       <c r="X331" s="4"/>
     </row>
-    <row r="332" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A332" s="4"/>
+    <row r="332" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
@@ -9154,8 +8819,7 @@
       <c r="W332" s="4"/>
       <c r="X332" s="4"/>
     </row>
-    <row r="333" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A333" s="4"/>
+    <row r="333" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
@@ -9180,8 +8844,7 @@
       <c r="W333" s="4"/>
       <c r="X333" s="4"/>
     </row>
-    <row r="334" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A334" s="4"/>
+    <row r="334" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
@@ -9206,8 +8869,7 @@
       <c r="W334" s="4"/>
       <c r="X334" s="4"/>
     </row>
-    <row r="335" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A335" s="4"/>
+    <row r="335" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
@@ -9232,8 +8894,7 @@
       <c r="W335" s="4"/>
       <c r="X335" s="4"/>
     </row>
-    <row r="336" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A336" s="4"/>
+    <row r="336" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
@@ -9258,8 +8919,7 @@
       <c r="W336" s="4"/>
       <c r="X336" s="4"/>
     </row>
-    <row r="337" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A337" s="4"/>
+    <row r="337" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
@@ -9284,8 +8944,7 @@
       <c r="W337" s="4"/>
       <c r="X337" s="4"/>
     </row>
-    <row r="338" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A338" s="4"/>
+    <row r="338" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
@@ -9310,8 +8969,7 @@
       <c r="W338" s="4"/>
       <c r="X338" s="4"/>
     </row>
-    <row r="339" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A339" s="4"/>
+    <row r="339" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
@@ -9336,8 +8994,7 @@
       <c r="W339" s="4"/>
       <c r="X339" s="4"/>
     </row>
-    <row r="340" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A340" s="4"/>
+    <row r="340" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
@@ -9362,8 +9019,7 @@
       <c r="W340" s="4"/>
       <c r="X340" s="4"/>
     </row>
-    <row r="341" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A341" s="4"/>
+    <row r="341" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
@@ -9388,8 +9044,7 @@
       <c r="W341" s="4"/>
       <c r="X341" s="4"/>
     </row>
-    <row r="342" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A342" s="4"/>
+    <row r="342" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
@@ -9414,8 +9069,7 @@
       <c r="W342" s="4"/>
       <c r="X342" s="4"/>
     </row>
-    <row r="343" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A343" s="4"/>
+    <row r="343" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
@@ -9440,8 +9094,7 @@
       <c r="W343" s="4"/>
       <c r="X343" s="4"/>
     </row>
-    <row r="344" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A344" s="4"/>
+    <row r="344" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
@@ -9466,8 +9119,7 @@
       <c r="W344" s="4"/>
       <c r="X344" s="4"/>
     </row>
-    <row r="345" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A345" s="4"/>
+    <row r="345" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
@@ -9492,8 +9144,7 @@
       <c r="W345" s="4"/>
       <c r="X345" s="4"/>
     </row>
-    <row r="346" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A346" s="4"/>
+    <row r="346" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
@@ -9518,8 +9169,7 @@
       <c r="W346" s="4"/>
       <c r="X346" s="4"/>
     </row>
-    <row r="347" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A347" s="4"/>
+    <row r="347" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
@@ -9544,8 +9194,7 @@
       <c r="W347" s="4"/>
       <c r="X347" s="4"/>
     </row>
-    <row r="348" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A348" s="4"/>
+    <row r="348" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
@@ -9570,8 +9219,7 @@
       <c r="W348" s="4"/>
       <c r="X348" s="4"/>
     </row>
-    <row r="349" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A349" s="4"/>
+    <row r="349" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
@@ -9596,8 +9244,7 @@
       <c r="W349" s="4"/>
       <c r="X349" s="4"/>
     </row>
-    <row r="350" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A350" s="4"/>
+    <row r="350" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
@@ -9622,8 +9269,7 @@
       <c r="W350" s="4"/>
       <c r="X350" s="4"/>
     </row>
-    <row r="351" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A351" s="4"/>
+    <row r="351" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
@@ -9648,8 +9294,7 @@
       <c r="W351" s="4"/>
       <c r="X351" s="4"/>
     </row>
-    <row r="352" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A352" s="4"/>
+    <row r="352" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
@@ -9674,8 +9319,7 @@
       <c r="W352" s="4"/>
       <c r="X352" s="4"/>
     </row>
-    <row r="353" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A353" s="4"/>
+    <row r="353" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
@@ -9700,8 +9344,7 @@
       <c r="W353" s="4"/>
       <c r="X353" s="4"/>
     </row>
-    <row r="354" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A354" s="4"/>
+    <row r="354" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
@@ -9726,8 +9369,7 @@
       <c r="W354" s="4"/>
       <c r="X354" s="4"/>
     </row>
-    <row r="355" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A355" s="4"/>
+    <row r="355" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
@@ -9752,8 +9394,7 @@
       <c r="W355" s="4"/>
       <c r="X355" s="4"/>
     </row>
-    <row r="356" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A356" s="4"/>
+    <row r="356" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
@@ -9778,8 +9419,7 @@
       <c r="W356" s="4"/>
       <c r="X356" s="4"/>
     </row>
-    <row r="357" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A357" s="4"/>
+    <row r="357" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -9804,8 +9444,7 @@
       <c r="W357" s="4"/>
       <c r="X357" s="4"/>
     </row>
-    <row r="358" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A358" s="4"/>
+    <row r="358" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -9830,8 +9469,7 @@
       <c r="W358" s="4"/>
       <c r="X358" s="4"/>
     </row>
-    <row r="359" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A359" s="4"/>
+    <row r="359" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
@@ -9856,8 +9494,7 @@
       <c r="W359" s="4"/>
       <c r="X359" s="4"/>
     </row>
-    <row r="360" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A360" s="4"/>
+    <row r="360" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
@@ -9882,8 +9519,7 @@
       <c r="W360" s="4"/>
       <c r="X360" s="4"/>
     </row>
-    <row r="361" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A361" s="4"/>
+    <row r="361" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
@@ -9908,8 +9544,7 @@
       <c r="W361" s="4"/>
       <c r="X361" s="4"/>
     </row>
-    <row r="362" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A362" s="4"/>
+    <row r="362" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
@@ -9934,8 +9569,7 @@
       <c r="W362" s="4"/>
       <c r="X362" s="4"/>
     </row>
-    <row r="363" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A363" s="4"/>
+    <row r="363" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
@@ -9960,8 +9594,7 @@
       <c r="W363" s="4"/>
       <c r="X363" s="4"/>
     </row>
-    <row r="364" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A364" s="4"/>
+    <row r="364" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
@@ -9986,8 +9619,7 @@
       <c r="W364" s="4"/>
       <c r="X364" s="4"/>
     </row>
-    <row r="365" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A365" s="4"/>
+    <row r="365" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
@@ -10012,8 +9644,7 @@
       <c r="W365" s="4"/>
       <c r="X365" s="4"/>
     </row>
-    <row r="366" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A366" s="4"/>
+    <row r="366" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
@@ -10038,8 +9669,7 @@
       <c r="W366" s="4"/>
       <c r="X366" s="4"/>
     </row>
-    <row r="367" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A367" s="4"/>
+    <row r="367" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
@@ -10064,8 +9694,7 @@
       <c r="W367" s="4"/>
       <c r="X367" s="4"/>
     </row>
-    <row r="368" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A368" s="4"/>
+    <row r="368" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
@@ -10090,8 +9719,7 @@
       <c r="W368" s="4"/>
       <c r="X368" s="4"/>
     </row>
-    <row r="369" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A369" s="4"/>
+    <row r="369" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
@@ -10116,8 +9744,7 @@
       <c r="W369" s="4"/>
       <c r="X369" s="4"/>
     </row>
-    <row r="370" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A370" s="4"/>
+    <row r="370" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
@@ -10142,8 +9769,7 @@
       <c r="W370" s="4"/>
       <c r="X370" s="4"/>
     </row>
-    <row r="371" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A371" s="4"/>
+    <row r="371" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
@@ -10168,8 +9794,7 @@
       <c r="W371" s="4"/>
       <c r="X371" s="4"/>
     </row>
-    <row r="372" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A372" s="4"/>
+    <row r="372" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
@@ -10194,8 +9819,7 @@
       <c r="W372" s="4"/>
       <c r="X372" s="4"/>
     </row>
-    <row r="373" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A373" s="4"/>
+    <row r="373" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
@@ -10220,8 +9844,7 @@
       <c r="W373" s="4"/>
       <c r="X373" s="4"/>
     </row>
-    <row r="374" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A374" s="4"/>
+    <row r="374" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
@@ -10246,8 +9869,7 @@
       <c r="W374" s="4"/>
       <c r="X374" s="4"/>
     </row>
-    <row r="375" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A375" s="4"/>
+    <row r="375" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
@@ -10272,8 +9894,7 @@
       <c r="W375" s="4"/>
       <c r="X375" s="4"/>
     </row>
-    <row r="376" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A376" s="4"/>
+    <row r="376" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
@@ -10298,8 +9919,7 @@
       <c r="W376" s="4"/>
       <c r="X376" s="4"/>
     </row>
-    <row r="377" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A377" s="4"/>
+    <row r="377" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
@@ -10324,8 +9944,7 @@
       <c r="W377" s="4"/>
       <c r="X377" s="4"/>
     </row>
-    <row r="378" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A378" s="4"/>
+    <row r="378" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
@@ -10350,8 +9969,7 @@
       <c r="W378" s="4"/>
       <c r="X378" s="4"/>
     </row>
-    <row r="379" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A379" s="4"/>
+    <row r="379" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
@@ -10376,8 +9994,7 @@
       <c r="W379" s="4"/>
       <c r="X379" s="4"/>
     </row>
-    <row r="380" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A380" s="4"/>
+    <row r="380" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
@@ -10402,8 +10019,7 @@
       <c r="W380" s="4"/>
       <c r="X380" s="4"/>
     </row>
-    <row r="381" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A381" s="4"/>
+    <row r="381" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
@@ -10428,8 +10044,7 @@
       <c r="W381" s="4"/>
       <c r="X381" s="4"/>
     </row>
-    <row r="382" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A382" s="4"/>
+    <row r="382" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
@@ -10454,8 +10069,7 @@
       <c r="W382" s="4"/>
       <c r="X382" s="4"/>
     </row>
-    <row r="383" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A383" s="4"/>
+    <row r="383" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
@@ -10480,8 +10094,7 @@
       <c r="W383" s="4"/>
       <c r="X383" s="4"/>
     </row>
-    <row r="384" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A384" s="4"/>
+    <row r="384" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
@@ -10506,8 +10119,7 @@
       <c r="W384" s="4"/>
       <c r="X384" s="4"/>
     </row>
-    <row r="385" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A385" s="4"/>
+    <row r="385" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
@@ -10532,8 +10144,7 @@
       <c r="W385" s="4"/>
       <c r="X385" s="4"/>
     </row>
-    <row r="386" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A386" s="4"/>
+    <row r="386" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
@@ -10558,8 +10169,7 @@
       <c r="W386" s="4"/>
       <c r="X386" s="4"/>
     </row>
-    <row r="387" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A387" s="4"/>
+    <row r="387" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
@@ -10584,8 +10194,7 @@
       <c r="W387" s="4"/>
       <c r="X387" s="4"/>
     </row>
-    <row r="388" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A388" s="4"/>
+    <row r="388" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
@@ -10610,8 +10219,7 @@
       <c r="W388" s="4"/>
       <c r="X388" s="4"/>
     </row>
-    <row r="389" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A389" s="4"/>
+    <row r="389" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
@@ -10636,8 +10244,7 @@
       <c r="W389" s="4"/>
       <c r="X389" s="4"/>
     </row>
-    <row r="390" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A390" s="4"/>
+    <row r="390" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
@@ -10662,8 +10269,7 @@
       <c r="W390" s="4"/>
       <c r="X390" s="4"/>
     </row>
-    <row r="391" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A391" s="4"/>
+    <row r="391" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
@@ -10688,8 +10294,7 @@
       <c r="W391" s="4"/>
       <c r="X391" s="4"/>
     </row>
-    <row r="392" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A392" s="4"/>
+    <row r="392" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
@@ -10714,8 +10319,7 @@
       <c r="W392" s="4"/>
       <c r="X392" s="4"/>
     </row>
-    <row r="393" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A393" s="4"/>
+    <row r="393" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
@@ -10740,8 +10344,7 @@
       <c r="W393" s="4"/>
       <c r="X393" s="4"/>
     </row>
-    <row r="394" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A394" s="4"/>
+    <row r="394" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
@@ -10766,8 +10369,7 @@
       <c r="W394" s="4"/>
       <c r="X394" s="4"/>
     </row>
-    <row r="395" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A395" s="4"/>
+    <row r="395" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
@@ -10792,8 +10394,7 @@
       <c r="W395" s="4"/>
       <c r="X395" s="4"/>
     </row>
-    <row r="396" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A396" s="4"/>
+    <row r="396" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
@@ -10818,8 +10419,7 @@
       <c r="W396" s="4"/>
       <c r="X396" s="4"/>
     </row>
-    <row r="397" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A397" s="4"/>
+    <row r="397" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
@@ -10844,8 +10444,7 @@
       <c r="W397" s="4"/>
       <c r="X397" s="4"/>
     </row>
-    <row r="398" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A398" s="4"/>
+    <row r="398" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
@@ -10870,8 +10469,7 @@
       <c r="W398" s="4"/>
       <c r="X398" s="4"/>
     </row>
-    <row r="399" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A399" s="4"/>
+    <row r="399" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
@@ -10896,8 +10494,7 @@
       <c r="W399" s="4"/>
       <c r="X399" s="4"/>
     </row>
-    <row r="400" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A400" s="4"/>
+    <row r="400" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
@@ -10922,8 +10519,7 @@
       <c r="W400" s="4"/>
       <c r="X400" s="4"/>
     </row>
-    <row r="401" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A401" s="4"/>
+    <row r="401" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
@@ -10948,8 +10544,7 @@
       <c r="W401" s="4"/>
       <c r="X401" s="4"/>
     </row>
-    <row r="402" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A402" s="4"/>
+    <row r="402" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
@@ -10974,8 +10569,7 @@
       <c r="W402" s="4"/>
       <c r="X402" s="4"/>
     </row>
-    <row r="403" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A403" s="4"/>
+    <row r="403" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
@@ -11000,8 +10594,7 @@
       <c r="W403" s="4"/>
       <c r="X403" s="4"/>
     </row>
-    <row r="404" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A404" s="4"/>
+    <row r="404" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
@@ -11026,8 +10619,7 @@
       <c r="W404" s="4"/>
       <c r="X404" s="4"/>
     </row>
-    <row r="405" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A405" s="4"/>
+    <row r="405" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
@@ -11052,8 +10644,7 @@
       <c r="W405" s="4"/>
       <c r="X405" s="4"/>
     </row>
-    <row r="406" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A406" s="4"/>
+    <row r="406" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
@@ -11078,8 +10669,7 @@
       <c r="W406" s="4"/>
       <c r="X406" s="4"/>
     </row>
-    <row r="407" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A407" s="4"/>
+    <row r="407" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
@@ -11104,8 +10694,7 @@
       <c r="W407" s="4"/>
       <c r="X407" s="4"/>
     </row>
-    <row r="408" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A408" s="4"/>
+    <row r="408" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
@@ -11130,8 +10719,7 @@
       <c r="W408" s="4"/>
       <c r="X408" s="4"/>
     </row>
-    <row r="409" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A409" s="4"/>
+    <row r="409" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
@@ -11156,8 +10744,7 @@
       <c r="W409" s="4"/>
       <c r="X409" s="4"/>
     </row>
-    <row r="410" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A410" s="4"/>
+    <row r="410" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
@@ -11182,8 +10769,7 @@
       <c r="W410" s="4"/>
       <c r="X410" s="4"/>
     </row>
-    <row r="411" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A411" s="4"/>
+    <row r="411" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
@@ -11208,8 +10794,7 @@
       <c r="W411" s="4"/>
       <c r="X411" s="4"/>
     </row>
-    <row r="412" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A412" s="4"/>
+    <row r="412" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
@@ -11234,8 +10819,7 @@
       <c r="W412" s="4"/>
       <c r="X412" s="4"/>
     </row>
-    <row r="413" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A413" s="4"/>
+    <row r="413" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
@@ -11260,8 +10844,7 @@
       <c r="W413" s="4"/>
       <c r="X413" s="4"/>
     </row>
-    <row r="414" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A414" s="4"/>
+    <row r="414" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
@@ -11286,8 +10869,7 @@
       <c r="W414" s="4"/>
       <c r="X414" s="4"/>
     </row>
-    <row r="415" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A415" s="4"/>
+    <row r="415" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
@@ -11312,8 +10894,7 @@
       <c r="W415" s="4"/>
       <c r="X415" s="4"/>
     </row>
-    <row r="416" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A416" s="4"/>
+    <row r="416" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
@@ -11338,8 +10919,7 @@
       <c r="W416" s="4"/>
       <c r="X416" s="4"/>
     </row>
-    <row r="417" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A417" s="4"/>
+    <row r="417" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
@@ -11364,8 +10944,7 @@
       <c r="W417" s="4"/>
       <c r="X417" s="4"/>
     </row>
-    <row r="418" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A418" s="4"/>
+    <row r="418" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
@@ -11390,8 +10969,7 @@
       <c r="W418" s="4"/>
       <c r="X418" s="4"/>
     </row>
-    <row r="419" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A419" s="4"/>
+    <row r="419" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
@@ -11416,8 +10994,7 @@
       <c r="W419" s="4"/>
       <c r="X419" s="4"/>
     </row>
-    <row r="420" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A420" s="4"/>
+    <row r="420" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
@@ -11442,8 +11019,7 @@
       <c r="W420" s="4"/>
       <c r="X420" s="4"/>
     </row>
-    <row r="421" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A421" s="4"/>
+    <row r="421" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
@@ -11468,8 +11044,7 @@
       <c r="W421" s="4"/>
       <c r="X421" s="4"/>
     </row>
-    <row r="422" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A422" s="4"/>
+    <row r="422" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
@@ -11494,8 +11069,7 @@
       <c r="W422" s="4"/>
       <c r="X422" s="4"/>
     </row>
-    <row r="423" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A423" s="4"/>
+    <row r="423" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
@@ -11520,8 +11094,7 @@
       <c r="W423" s="4"/>
       <c r="X423" s="4"/>
     </row>
-    <row r="424" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A424" s="4"/>
+    <row r="424" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
@@ -11546,8 +11119,7 @@
       <c r="W424" s="4"/>
       <c r="X424" s="4"/>
     </row>
-    <row r="425" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A425" s="4"/>
+    <row r="425" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
@@ -11572,8 +11144,7 @@
       <c r="W425" s="4"/>
       <c r="X425" s="4"/>
     </row>
-    <row r="426" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A426" s="4"/>
+    <row r="426" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
@@ -11598,8 +11169,7 @@
       <c r="W426" s="4"/>
       <c r="X426" s="4"/>
     </row>
-    <row r="427" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A427" s="4"/>
+    <row r="427" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
@@ -11624,8 +11194,7 @@
       <c r="W427" s="4"/>
       <c r="X427" s="4"/>
     </row>
-    <row r="428" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A428" s="4"/>
+    <row r="428" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
@@ -11650,8 +11219,7 @@
       <c r="W428" s="4"/>
       <c r="X428" s="4"/>
     </row>
-    <row r="429" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A429" s="4"/>
+    <row r="429" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
@@ -11676,8 +11244,7 @@
       <c r="W429" s="4"/>
       <c r="X429" s="4"/>
     </row>
-    <row r="430" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A430" s="4"/>
+    <row r="430" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
@@ -11702,8 +11269,7 @@
       <c r="W430" s="4"/>
       <c r="X430" s="4"/>
     </row>
-    <row r="431" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A431" s="4"/>
+    <row r="431" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
@@ -11728,8 +11294,7 @@
       <c r="W431" s="4"/>
       <c r="X431" s="4"/>
     </row>
-    <row r="432" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A432" s="4"/>
+    <row r="432" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
@@ -11754,8 +11319,7 @@
       <c r="W432" s="4"/>
       <c r="X432" s="4"/>
     </row>
-    <row r="433" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A433" s="4"/>
+    <row r="433" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
@@ -11780,8 +11344,7 @@
       <c r="W433" s="4"/>
       <c r="X433" s="4"/>
     </row>
-    <row r="434" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A434" s="4"/>
+    <row r="434" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
@@ -11806,8 +11369,7 @@
       <c r="W434" s="4"/>
       <c r="X434" s="4"/>
     </row>
-    <row r="435" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A435" s="4"/>
+    <row r="435" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
@@ -11832,8 +11394,7 @@
       <c r="W435" s="4"/>
       <c r="X435" s="4"/>
     </row>
-    <row r="436" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A436" s="4"/>
+    <row r="436" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
@@ -11858,8 +11419,7 @@
       <c r="W436" s="4"/>
       <c r="X436" s="4"/>
     </row>
-    <row r="437" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A437" s="4"/>
+    <row r="437" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
@@ -11884,8 +11444,7 @@
       <c r="W437" s="4"/>
       <c r="X437" s="4"/>
     </row>
-    <row r="438" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A438" s="4"/>
+    <row r="438" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
@@ -11910,8 +11469,7 @@
       <c r="W438" s="4"/>
       <c r="X438" s="4"/>
     </row>
-    <row r="439" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A439" s="4"/>
+    <row r="439" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
@@ -11936,8 +11494,7 @@
       <c r="W439" s="4"/>
       <c r="X439" s="4"/>
     </row>
-    <row r="440" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A440" s="4"/>
+    <row r="440" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
@@ -11962,8 +11519,7 @@
       <c r="W440" s="4"/>
       <c r="X440" s="4"/>
     </row>
-    <row r="441" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A441" s="4"/>
+    <row r="441" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
@@ -11988,8 +11544,7 @@
       <c r="W441" s="4"/>
       <c r="X441" s="4"/>
     </row>
-    <row r="442" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A442" s="4"/>
+    <row r="442" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
@@ -12014,8 +11569,7 @@
       <c r="W442" s="4"/>
       <c r="X442" s="4"/>
     </row>
-    <row r="443" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A443" s="4"/>
+    <row r="443" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
@@ -12040,8 +11594,7 @@
       <c r="W443" s="4"/>
       <c r="X443" s="4"/>
     </row>
-    <row r="444" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A444" s="4"/>
+    <row r="444" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
@@ -12066,8 +11619,7 @@
       <c r="W444" s="4"/>
       <c r="X444" s="4"/>
     </row>
-    <row r="445" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A445" s="4"/>
+    <row r="445" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
@@ -12092,8 +11644,7 @@
       <c r="W445" s="4"/>
       <c r="X445" s="4"/>
     </row>
-    <row r="446" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A446" s="4"/>
+    <row r="446" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
@@ -12118,8 +11669,7 @@
       <c r="W446" s="4"/>
       <c r="X446" s="4"/>
     </row>
-    <row r="447" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A447" s="4"/>
+    <row r="447" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
@@ -12144,8 +11694,7 @@
       <c r="W447" s="4"/>
       <c r="X447" s="4"/>
     </row>
-    <row r="448" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A448" s="4"/>
+    <row r="448" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
@@ -12170,8 +11719,7 @@
       <c r="W448" s="4"/>
       <c r="X448" s="4"/>
     </row>
-    <row r="449" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A449" s="4"/>
+    <row r="449" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
@@ -12196,8 +11744,7 @@
       <c r="W449" s="4"/>
       <c r="X449" s="4"/>
     </row>
-    <row r="450" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A450" s="4"/>
+    <row r="450" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
@@ -12222,8 +11769,7 @@
       <c r="W450" s="4"/>
       <c r="X450" s="4"/>
     </row>
-    <row r="451" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A451" s="4"/>
+    <row r="451" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
@@ -12248,8 +11794,7 @@
       <c r="W451" s="4"/>
       <c r="X451" s="4"/>
     </row>
-    <row r="452" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A452" s="4"/>
+    <row r="452" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
@@ -12274,8 +11819,7 @@
       <c r="W452" s="4"/>
       <c r="X452" s="4"/>
     </row>
-    <row r="453" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A453" s="4"/>
+    <row r="453" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
@@ -12300,8 +11844,7 @@
       <c r="W453" s="4"/>
       <c r="X453" s="4"/>
     </row>
-    <row r="454" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A454" s="4"/>
+    <row r="454" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
@@ -12326,8 +11869,7 @@
       <c r="W454" s="4"/>
       <c r="X454" s="4"/>
     </row>
-    <row r="455" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A455" s="4"/>
+    <row r="455" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
@@ -12352,8 +11894,7 @@
       <c r="W455" s="4"/>
       <c r="X455" s="4"/>
     </row>
-    <row r="456" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A456" s="4"/>
+    <row r="456" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
@@ -12378,8 +11919,7 @@
       <c r="W456" s="4"/>
       <c r="X456" s="4"/>
     </row>
-    <row r="457" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A457" s="4"/>
+    <row r="457" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
@@ -12404,8 +11944,7 @@
       <c r="W457" s="4"/>
       <c r="X457" s="4"/>
     </row>
-    <row r="458" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A458" s="4"/>
+    <row r="458" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
@@ -12430,8 +11969,7 @@
       <c r="W458" s="4"/>
       <c r="X458" s="4"/>
     </row>
-    <row r="459" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A459" s="4"/>
+    <row r="459" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
@@ -12456,8 +11994,7 @@
       <c r="W459" s="4"/>
       <c r="X459" s="4"/>
     </row>
-    <row r="460" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A460" s="4"/>
+    <row r="460" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
@@ -12482,8 +12019,7 @@
       <c r="W460" s="4"/>
       <c r="X460" s="4"/>
     </row>
-    <row r="461" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A461" s="4"/>
+    <row r="461" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
@@ -12508,8 +12044,7 @@
       <c r="W461" s="4"/>
       <c r="X461" s="4"/>
     </row>
-    <row r="462" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A462" s="4"/>
+    <row r="462" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
@@ -12534,8 +12069,7 @@
       <c r="W462" s="4"/>
       <c r="X462" s="4"/>
     </row>
-    <row r="463" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A463" s="4"/>
+    <row r="463" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
@@ -12560,8 +12094,7 @@
       <c r="W463" s="4"/>
       <c r="X463" s="4"/>
     </row>
-    <row r="464" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A464" s="4"/>
+    <row r="464" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
@@ -12586,8 +12119,7 @@
       <c r="W464" s="4"/>
       <c r="X464" s="4"/>
     </row>
-    <row r="465" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A465" s="4"/>
+    <row r="465" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
@@ -12612,8 +12144,7 @@
       <c r="W465" s="4"/>
       <c r="X465" s="4"/>
     </row>
-    <row r="466" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A466" s="4"/>
+    <row r="466" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
@@ -12638,8 +12169,7 @@
       <c r="W466" s="4"/>
       <c r="X466" s="4"/>
     </row>
-    <row r="467" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A467" s="4"/>
+    <row r="467" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
@@ -12664,8 +12194,7 @@
       <c r="W467" s="4"/>
       <c r="X467" s="4"/>
     </row>
-    <row r="468" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A468" s="4"/>
+    <row r="468" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
@@ -12690,8 +12219,7 @@
       <c r="W468" s="4"/>
       <c r="X468" s="4"/>
     </row>
-    <row r="469" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A469" s="4"/>
+    <row r="469" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
@@ -12716,8 +12244,7 @@
       <c r="W469" s="4"/>
       <c r="X469" s="4"/>
     </row>
-    <row r="470" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A470" s="4"/>
+    <row r="470" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
@@ -12742,8 +12269,7 @@
       <c r="W470" s="4"/>
       <c r="X470" s="4"/>
     </row>
-    <row r="471" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A471" s="4"/>
+    <row r="471" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
@@ -12768,8 +12294,7 @@
       <c r="W471" s="4"/>
       <c r="X471" s="4"/>
     </row>
-    <row r="472" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A472" s="4"/>
+    <row r="472" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
@@ -12794,8 +12319,7 @@
       <c r="W472" s="4"/>
       <c r="X472" s="4"/>
     </row>
-    <row r="473" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A473" s="4"/>
+    <row r="473" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
@@ -12820,8 +12344,7 @@
       <c r="W473" s="4"/>
       <c r="X473" s="4"/>
     </row>
-    <row r="474" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A474" s="4"/>
+    <row r="474" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
@@ -12846,8 +12369,7 @@
       <c r="W474" s="4"/>
       <c r="X474" s="4"/>
     </row>
-    <row r="475" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A475" s="4"/>
+    <row r="475" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
@@ -12872,8 +12394,7 @@
       <c r="W475" s="4"/>
       <c r="X475" s="4"/>
     </row>
-    <row r="476" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A476" s="4"/>
+    <row r="476" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
@@ -12898,8 +12419,7 @@
       <c r="W476" s="4"/>
       <c r="X476" s="4"/>
     </row>
-    <row r="477" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A477" s="4"/>
+    <row r="477" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
@@ -12924,8 +12444,7 @@
       <c r="W477" s="4"/>
       <c r="X477" s="4"/>
     </row>
-    <row r="478" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A478" s="4"/>
+    <row r="478" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
@@ -12950,8 +12469,7 @@
       <c r="W478" s="4"/>
       <c r="X478" s="4"/>
     </row>
-    <row r="479" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A479" s="4"/>
+    <row r="479" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
@@ -12976,8 +12494,7 @@
       <c r="W479" s="4"/>
       <c r="X479" s="4"/>
     </row>
-    <row r="480" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A480" s="4"/>
+    <row r="480" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
@@ -13002,8 +12519,7 @@
       <c r="W480" s="4"/>
       <c r="X480" s="4"/>
     </row>
-    <row r="481" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A481" s="4"/>
+    <row r="481" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
@@ -13028,8 +12544,7 @@
       <c r="W481" s="4"/>
       <c r="X481" s="4"/>
     </row>
-    <row r="482" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A482" s="4"/>
+    <row r="482" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
@@ -13054,8 +12569,7 @@
       <c r="W482" s="4"/>
       <c r="X482" s="4"/>
     </row>
-    <row r="483" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A483" s="4"/>
+    <row r="483" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
@@ -13080,8 +12594,7 @@
       <c r="W483" s="4"/>
       <c r="X483" s="4"/>
     </row>
-    <row r="484" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A484" s="4"/>
+    <row r="484" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
@@ -13106,8 +12619,7 @@
       <c r="W484" s="4"/>
       <c r="X484" s="4"/>
     </row>
-    <row r="485" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A485" s="4"/>
+    <row r="485" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
@@ -13132,8 +12644,7 @@
       <c r="W485" s="4"/>
       <c r="X485" s="4"/>
     </row>
-    <row r="486" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A486" s="4"/>
+    <row r="486" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
@@ -13158,8 +12669,7 @@
       <c r="W486" s="4"/>
       <c r="X486" s="4"/>
     </row>
-    <row r="487" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A487" s="4"/>
+    <row r="487" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
@@ -13184,8 +12694,7 @@
       <c r="W487" s="4"/>
       <c r="X487" s="4"/>
     </row>
-    <row r="488" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A488" s="4"/>
+    <row r="488" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
@@ -13210,8 +12719,7 @@
       <c r="W488" s="4"/>
       <c r="X488" s="4"/>
     </row>
-    <row r="489" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A489" s="4"/>
+    <row r="489" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
@@ -13236,8 +12744,7 @@
       <c r="W489" s="4"/>
       <c r="X489" s="4"/>
     </row>
-    <row r="490" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A490" s="4"/>
+    <row r="490" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
@@ -13262,8 +12769,7 @@
       <c r="W490" s="4"/>
       <c r="X490" s="4"/>
     </row>
-    <row r="491" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A491" s="4"/>
+    <row r="491" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
@@ -13288,8 +12794,7 @@
       <c r="W491" s="4"/>
       <c r="X491" s="4"/>
     </row>
-    <row r="492" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A492" s="4"/>
+    <row r="492" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
@@ -13314,8 +12819,7 @@
       <c r="W492" s="4"/>
       <c r="X492" s="4"/>
     </row>
-    <row r="493" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A493" s="4"/>
+    <row r="493" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
@@ -13340,8 +12844,7 @@
       <c r="W493" s="4"/>
       <c r="X493" s="4"/>
     </row>
-    <row r="494" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A494" s="4"/>
+    <row r="494" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
@@ -13366,8 +12869,7 @@
       <c r="W494" s="4"/>
       <c r="X494" s="4"/>
     </row>
-    <row r="495" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A495" s="4"/>
+    <row r="495" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
@@ -13392,8 +12894,7 @@
       <c r="W495" s="4"/>
       <c r="X495" s="4"/>
     </row>
-    <row r="496" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A496" s="4"/>
+    <row r="496" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
@@ -13418,8 +12919,7 @@
       <c r="W496" s="4"/>
       <c r="X496" s="4"/>
     </row>
-    <row r="497" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A497" s="4"/>
+    <row r="497" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
@@ -13444,8 +12944,7 @@
       <c r="W497" s="4"/>
       <c r="X497" s="4"/>
     </row>
-    <row r="498" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A498" s="4"/>
+    <row r="498" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
@@ -13470,8 +12969,7 @@
       <c r="W498" s="4"/>
       <c r="X498" s="4"/>
     </row>
-    <row r="499" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A499" s="4"/>
+    <row r="499" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
@@ -13496,8 +12994,7 @@
       <c r="W499" s="4"/>
       <c r="X499" s="4"/>
     </row>
-    <row r="500" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A500" s="4"/>
+    <row r="500" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
@@ -13522,8 +13019,7 @@
       <c r="W500" s="4"/>
       <c r="X500" s="4"/>
     </row>
-    <row r="501" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A501" s="4"/>
+    <row r="501" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
@@ -13548,8 +13044,7 @@
       <c r="W501" s="4"/>
       <c r="X501" s="4"/>
     </row>
-    <row r="502" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A502" s="4"/>
+    <row r="502" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
@@ -13574,8 +13069,7 @@
       <c r="W502" s="4"/>
       <c r="X502" s="4"/>
     </row>
-    <row r="503" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A503" s="4"/>
+    <row r="503" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
@@ -13600,8 +13094,7 @@
       <c r="W503" s="4"/>
       <c r="X503" s="4"/>
     </row>
-    <row r="504" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A504" s="4"/>
+    <row r="504" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
@@ -13626,8 +13119,7 @@
       <c r="W504" s="4"/>
       <c r="X504" s="4"/>
     </row>
-    <row r="505" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A505" s="4"/>
+    <row r="505" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
@@ -13652,8 +13144,7 @@
       <c r="W505" s="4"/>
       <c r="X505" s="4"/>
     </row>
-    <row r="506" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A506" s="4"/>
+    <row r="506" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
@@ -13678,8 +13169,7 @@
       <c r="W506" s="4"/>
       <c r="X506" s="4"/>
     </row>
-    <row r="507" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A507" s="4"/>
+    <row r="507" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
@@ -13704,8 +13194,7 @@
       <c r="W507" s="4"/>
       <c r="X507" s="4"/>
     </row>
-    <row r="508" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A508" s="4"/>
+    <row r="508" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
@@ -13730,8 +13219,7 @@
       <c r="W508" s="4"/>
       <c r="X508" s="4"/>
     </row>
-    <row r="509" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A509" s="4"/>
+    <row r="509" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
@@ -13756,8 +13244,7 @@
       <c r="W509" s="4"/>
       <c r="X509" s="4"/>
     </row>
-    <row r="510" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A510" s="4"/>
+    <row r="510" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
@@ -13782,8 +13269,7 @@
       <c r="W510" s="4"/>
       <c r="X510" s="4"/>
     </row>
-    <row r="511" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A511" s="4"/>
+    <row r="511" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
@@ -13808,8 +13294,7 @@
       <c r="W511" s="4"/>
       <c r="X511" s="4"/>
     </row>
-    <row r="512" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A512" s="4"/>
+    <row r="512" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
@@ -13834,8 +13319,7 @@
       <c r="W512" s="4"/>
       <c r="X512" s="4"/>
     </row>
-    <row r="513" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A513" s="4"/>
+    <row r="513" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
@@ -13860,8 +13344,7 @@
       <c r="W513" s="4"/>
       <c r="X513" s="4"/>
     </row>
-    <row r="514" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A514" s="4"/>
+    <row r="514" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
@@ -13886,8 +13369,7 @@
       <c r="W514" s="4"/>
       <c r="X514" s="4"/>
     </row>
-    <row r="515" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A515" s="4"/>
+    <row r="515" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
@@ -13912,8 +13394,7 @@
       <c r="W515" s="4"/>
       <c r="X515" s="4"/>
     </row>
-    <row r="516" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A516" s="4"/>
+    <row r="516" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
@@ -13938,8 +13419,7 @@
       <c r="W516" s="4"/>
       <c r="X516" s="4"/>
     </row>
-    <row r="517" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A517" s="4"/>
+    <row r="517" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
@@ -13964,8 +13444,7 @@
       <c r="W517" s="4"/>
       <c r="X517" s="4"/>
     </row>
-    <row r="518" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A518" s="4"/>
+    <row r="518" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
@@ -13990,8 +13469,7 @@
       <c r="W518" s="4"/>
       <c r="X518" s="4"/>
     </row>
-    <row r="519" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A519" s="4"/>
+    <row r="519" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
@@ -14016,8 +13494,7 @@
       <c r="W519" s="4"/>
       <c r="X519" s="4"/>
     </row>
-    <row r="520" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A520" s="4"/>
+    <row r="520" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
@@ -14042,8 +13519,7 @@
       <c r="W520" s="4"/>
       <c r="X520" s="4"/>
     </row>
-    <row r="521" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A521" s="4"/>
+    <row r="521" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
@@ -14068,8 +13544,7 @@
       <c r="W521" s="4"/>
       <c r="X521" s="4"/>
     </row>
-    <row r="522" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A522" s="4"/>
+    <row r="522" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
@@ -14094,8 +13569,7 @@
       <c r="W522" s="4"/>
       <c r="X522" s="4"/>
     </row>
-    <row r="523" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A523" s="4"/>
+    <row r="523" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
@@ -14120,8 +13594,7 @@
       <c r="W523" s="4"/>
       <c r="X523" s="4"/>
     </row>
-    <row r="524" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A524" s="4"/>
+    <row r="524" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
@@ -14146,8 +13619,7 @@
       <c r="W524" s="4"/>
       <c r="X524" s="4"/>
     </row>
-    <row r="525" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A525" s="4"/>
+    <row r="525" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
@@ -14172,8 +13644,7 @@
       <c r="W525" s="4"/>
       <c r="X525" s="4"/>
     </row>
-    <row r="526" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A526" s="4"/>
+    <row r="526" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
@@ -14198,8 +13669,7 @@
       <c r="W526" s="4"/>
       <c r="X526" s="4"/>
     </row>
-    <row r="527" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A527" s="4"/>
+    <row r="527" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
@@ -14224,8 +13694,7 @@
       <c r="W527" s="4"/>
       <c r="X527" s="4"/>
     </row>
-    <row r="528" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A528" s="4"/>
+    <row r="528" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
@@ -14250,8 +13719,7 @@
       <c r="W528" s="4"/>
       <c r="X528" s="4"/>
     </row>
-    <row r="529" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A529" s="4"/>
+    <row r="529" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
@@ -14276,8 +13744,7 @@
       <c r="W529" s="4"/>
       <c r="X529" s="4"/>
     </row>
-    <row r="530" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A530" s="4"/>
+    <row r="530" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
@@ -14302,8 +13769,7 @@
       <c r="W530" s="4"/>
       <c r="X530" s="4"/>
     </row>
-    <row r="531" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A531" s="4"/>
+    <row r="531" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
@@ -14328,8 +13794,7 @@
       <c r="W531" s="4"/>
       <c r="X531" s="4"/>
     </row>
-    <row r="532" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A532" s="4"/>
+    <row r="532" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
@@ -14354,8 +13819,7 @@
       <c r="W532" s="4"/>
       <c r="X532" s="4"/>
     </row>
-    <row r="533" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A533" s="4"/>
+    <row r="533" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
@@ -14380,8 +13844,7 @@
       <c r="W533" s="4"/>
       <c r="X533" s="4"/>
     </row>
-    <row r="534" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A534" s="4"/>
+    <row r="534" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
@@ -14406,8 +13869,7 @@
       <c r="W534" s="4"/>
       <c r="X534" s="4"/>
     </row>
-    <row r="535" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A535" s="4"/>
+    <row r="535" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
@@ -14432,8 +13894,7 @@
       <c r="W535" s="4"/>
       <c r="X535" s="4"/>
     </row>
-    <row r="536" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A536" s="4"/>
+    <row r="536" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
@@ -14458,8 +13919,7 @@
       <c r="W536" s="4"/>
       <c r="X536" s="4"/>
     </row>
-    <row r="537" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A537" s="4"/>
+    <row r="537" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
@@ -14484,8 +13944,7 @@
       <c r="W537" s="4"/>
       <c r="X537" s="4"/>
     </row>
-    <row r="538" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A538" s="4"/>
+    <row r="538" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
@@ -14510,8 +13969,7 @@
       <c r="W538" s="4"/>
       <c r="X538" s="4"/>
     </row>
-    <row r="539" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A539" s="4"/>
+    <row r="539" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
@@ -14536,8 +13994,7 @@
       <c r="W539" s="4"/>
       <c r="X539" s="4"/>
     </row>
-    <row r="540" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A540" s="4"/>
+    <row r="540" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
@@ -14562,8 +14019,7 @@
       <c r="W540" s="4"/>
       <c r="X540" s="4"/>
     </row>
-    <row r="541" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A541" s="4"/>
+    <row r="541" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
@@ -14588,8 +14044,7 @@
       <c r="W541" s="4"/>
       <c r="X541" s="4"/>
     </row>
-    <row r="542" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A542" s="4"/>
+    <row r="542" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
@@ -14614,8 +14069,7 @@
       <c r="W542" s="4"/>
       <c r="X542" s="4"/>
     </row>
-    <row r="543" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A543" s="4"/>
+    <row r="543" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
@@ -14640,8 +14094,7 @@
       <c r="W543" s="4"/>
       <c r="X543" s="4"/>
     </row>
-    <row r="544" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A544" s="4"/>
+    <row r="544" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
@@ -14666,8 +14119,7 @@
       <c r="W544" s="4"/>
       <c r="X544" s="4"/>
     </row>
-    <row r="545" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A545" s="4"/>
+    <row r="545" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
@@ -14692,8 +14144,7 @@
       <c r="W545" s="4"/>
       <c r="X545" s="4"/>
     </row>
-    <row r="546" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A546" s="4"/>
+    <row r="546" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
@@ -14718,8 +14169,7 @@
       <c r="W546" s="4"/>
       <c r="X546" s="4"/>
     </row>
-    <row r="547" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A547" s="4"/>
+    <row r="547" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
@@ -14744,8 +14194,7 @@
       <c r="W547" s="4"/>
       <c r="X547" s="4"/>
     </row>
-    <row r="548" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A548" s="4"/>
+    <row r="548" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
@@ -14770,8 +14219,7 @@
       <c r="W548" s="4"/>
       <c r="X548" s="4"/>
     </row>
-    <row r="549" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A549" s="4"/>
+    <row r="549" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
@@ -14796,8 +14244,7 @@
       <c r="W549" s="4"/>
       <c r="X549" s="4"/>
     </row>
-    <row r="550" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A550" s="4"/>
+    <row r="550" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
@@ -14822,8 +14269,7 @@
       <c r="W550" s="4"/>
       <c r="X550" s="4"/>
     </row>
-    <row r="551" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A551" s="4"/>
+    <row r="551" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
@@ -14848,8 +14294,7 @@
       <c r="W551" s="4"/>
       <c r="X551" s="4"/>
     </row>
-    <row r="552" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A552" s="4"/>
+    <row r="552" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
@@ -14874,8 +14319,7 @@
       <c r="W552" s="4"/>
       <c r="X552" s="4"/>
     </row>
-    <row r="553" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A553" s="4"/>
+    <row r="553" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
@@ -14900,8 +14344,7 @@
       <c r="W553" s="4"/>
       <c r="X553" s="4"/>
     </row>
-    <row r="554" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A554" s="4"/>
+    <row r="554" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
@@ -14926,8 +14369,7 @@
       <c r="W554" s="4"/>
       <c r="X554" s="4"/>
     </row>
-    <row r="555" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A555" s="4"/>
+    <row r="555" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
@@ -14952,8 +14394,7 @@
       <c r="W555" s="4"/>
       <c r="X555" s="4"/>
     </row>
-    <row r="556" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A556" s="4"/>
+    <row r="556" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
@@ -14978,8 +14419,7 @@
       <c r="W556" s="4"/>
       <c r="X556" s="4"/>
     </row>
-    <row r="557" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A557" s="4"/>
+    <row r="557" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
@@ -15004,8 +14444,7 @@
       <c r="W557" s="4"/>
       <c r="X557" s="4"/>
     </row>
-    <row r="558" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A558" s="4"/>
+    <row r="558" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
       <c r="D558" s="4"/>
@@ -15030,8 +14469,7 @@
       <c r="W558" s="4"/>
       <c r="X558" s="4"/>
     </row>
-    <row r="559" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A559" s="4"/>
+    <row r="559" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
@@ -15056,8 +14494,7 @@
       <c r="W559" s="4"/>
       <c r="X559" s="4"/>
     </row>
-    <row r="560" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A560" s="4"/>
+    <row r="560" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
@@ -15082,8 +14519,7 @@
       <c r="W560" s="4"/>
       <c r="X560" s="4"/>
     </row>
-    <row r="561" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A561" s="4"/>
+    <row r="561" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
@@ -15108,8 +14544,7 @@
       <c r="W561" s="4"/>
       <c r="X561" s="4"/>
     </row>
-    <row r="562" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A562" s="4"/>
+    <row r="562" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
@@ -15134,8 +14569,7 @@
       <c r="W562" s="4"/>
       <c r="X562" s="4"/>
     </row>
-    <row r="563" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A563" s="4"/>
+    <row r="563" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
@@ -15160,8 +14594,7 @@
       <c r="W563" s="4"/>
       <c r="X563" s="4"/>
     </row>
-    <row r="564" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A564" s="4"/>
+    <row r="564" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
@@ -15186,8 +14619,7 @@
       <c r="W564" s="4"/>
       <c r="X564" s="4"/>
     </row>
-    <row r="565" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A565" s="4"/>
+    <row r="565" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
       <c r="D565" s="4"/>
@@ -15212,8 +14644,7 @@
       <c r="W565" s="4"/>
       <c r="X565" s="4"/>
     </row>
-    <row r="566" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A566" s="4"/>
+    <row r="566" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
       <c r="D566" s="4"/>
@@ -15238,8 +14669,7 @@
       <c r="W566" s="4"/>
       <c r="X566" s="4"/>
     </row>
-    <row r="567" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A567" s="4"/>
+    <row r="567" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
@@ -15264,8 +14694,7 @@
       <c r="W567" s="4"/>
       <c r="X567" s="4"/>
     </row>
-    <row r="568" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A568" s="4"/>
+    <row r="568" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
@@ -15290,8 +14719,7 @@
       <c r="W568" s="4"/>
       <c r="X568" s="4"/>
     </row>
-    <row r="569" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A569" s="4"/>
+    <row r="569" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
@@ -15316,8 +14744,7 @@
       <c r="W569" s="4"/>
       <c r="X569" s="4"/>
     </row>
-    <row r="570" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A570" s="4"/>
+    <row r="570" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
@@ -15342,8 +14769,7 @@
       <c r="W570" s="4"/>
       <c r="X570" s="4"/>
     </row>
-    <row r="571" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A571" s="4"/>
+    <row r="571" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
@@ -15368,8 +14794,7 @@
       <c r="W571" s="4"/>
       <c r="X571" s="4"/>
     </row>
-    <row r="572" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A572" s="4"/>
+    <row r="572" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
@@ -15394,8 +14819,7 @@
       <c r="W572" s="4"/>
       <c r="X572" s="4"/>
     </row>
-    <row r="573" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A573" s="4"/>
+    <row r="573" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
       <c r="D573" s="4"/>
@@ -15420,8 +14844,7 @@
       <c r="W573" s="4"/>
       <c r="X573" s="4"/>
     </row>
-    <row r="574" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A574" s="4"/>
+    <row r="574" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
@@ -15446,8 +14869,7 @@
       <c r="W574" s="4"/>
       <c r="X574" s="4"/>
     </row>
-    <row r="575" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A575" s="4"/>
+    <row r="575" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
@@ -15472,8 +14894,7 @@
       <c r="W575" s="4"/>
       <c r="X575" s="4"/>
     </row>
-    <row r="576" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A576" s="4"/>
+    <row r="576" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
       <c r="D576" s="4"/>
@@ -15498,8 +14919,7 @@
       <c r="W576" s="4"/>
       <c r="X576" s="4"/>
     </row>
-    <row r="577" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A577" s="4"/>
+    <row r="577" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
       <c r="D577" s="4"/>
@@ -15524,8 +14944,7 @@
       <c r="W577" s="4"/>
       <c r="X577" s="4"/>
     </row>
-    <row r="578" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A578" s="4"/>
+    <row r="578" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
       <c r="D578" s="4"/>
@@ -15550,8 +14969,7 @@
       <c r="W578" s="4"/>
       <c r="X578" s="4"/>
     </row>
-    <row r="579" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A579" s="4"/>
+    <row r="579" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
@@ -15576,8 +14994,7 @@
       <c r="W579" s="4"/>
       <c r="X579" s="4"/>
     </row>
-    <row r="580" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A580" s="4"/>
+    <row r="580" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
       <c r="D580" s="4"/>
@@ -15602,8 +15019,7 @@
       <c r="W580" s="4"/>
       <c r="X580" s="4"/>
     </row>
-    <row r="581" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A581" s="4"/>
+    <row r="581" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
       <c r="D581" s="4"/>
@@ -15628,8 +15044,7 @@
       <c r="W581" s="4"/>
       <c r="X581" s="4"/>
     </row>
-    <row r="582" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A582" s="4"/>
+    <row r="582" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
       <c r="D582" s="4"/>
@@ -15654,8 +15069,7 @@
       <c r="W582" s="4"/>
       <c r="X582" s="4"/>
     </row>
-    <row r="583" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A583" s="4"/>
+    <row r="583" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
       <c r="D583" s="4"/>
@@ -15680,8 +15094,7 @@
       <c r="W583" s="4"/>
       <c r="X583" s="4"/>
     </row>
-    <row r="584" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A584" s="4"/>
+    <row r="584" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
       <c r="D584" s="4"/>
@@ -15706,8 +15119,7 @@
       <c r="W584" s="4"/>
       <c r="X584" s="4"/>
     </row>
-    <row r="585" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A585" s="4"/>
+    <row r="585" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
@@ -15732,8 +15144,7 @@
       <c r="W585" s="4"/>
       <c r="X585" s="4"/>
     </row>
-    <row r="586" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A586" s="4"/>
+    <row r="586" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
       <c r="D586" s="4"/>
@@ -15758,8 +15169,7 @@
       <c r="W586" s="4"/>
       <c r="X586" s="4"/>
     </row>
-    <row r="587" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A587" s="4"/>
+    <row r="587" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
       <c r="D587" s="4"/>
@@ -15784,8 +15194,7 @@
       <c r="W587" s="4"/>
       <c r="X587" s="4"/>
     </row>
-    <row r="588" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A588" s="4"/>
+    <row r="588" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
       <c r="D588" s="4"/>
@@ -15810,8 +15219,7 @@
       <c r="W588" s="4"/>
       <c r="X588" s="4"/>
     </row>
-    <row r="589" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A589" s="4"/>
+    <row r="589" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
       <c r="D589" s="4"/>
@@ -15836,8 +15244,7 @@
       <c r="W589" s="4"/>
       <c r="X589" s="4"/>
     </row>
-    <row r="590" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A590" s="4"/>
+    <row r="590" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
       <c r="D590" s="4"/>
@@ -15862,8 +15269,7 @@
       <c r="W590" s="4"/>
       <c r="X590" s="4"/>
     </row>
-    <row r="591" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A591" s="4"/>
+    <row r="591" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
       <c r="D591" s="4"/>
@@ -15888,8 +15294,7 @@
       <c r="W591" s="4"/>
       <c r="X591" s="4"/>
     </row>
-    <row r="592" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A592" s="4"/>
+    <row r="592" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
@@ -15914,8 +15319,7 @@
       <c r="W592" s="4"/>
       <c r="X592" s="4"/>
     </row>
-    <row r="593" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A593" s="4"/>
+    <row r="593" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
       <c r="D593" s="4"/>
@@ -15940,8 +15344,7 @@
       <c r="W593" s="4"/>
       <c r="X593" s="4"/>
     </row>
-    <row r="594" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A594" s="4"/>
+    <row r="594" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
       <c r="D594" s="4"/>
@@ -15966,8 +15369,7 @@
       <c r="W594" s="4"/>
       <c r="X594" s="4"/>
     </row>
-    <row r="595" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A595" s="4"/>
+    <row r="595" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
@@ -15992,8 +15394,7 @@
       <c r="W595" s="4"/>
       <c r="X595" s="4"/>
     </row>
-    <row r="596" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A596" s="4"/>
+    <row r="596" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
@@ -16018,8 +15419,7 @@
       <c r="W596" s="4"/>
       <c r="X596" s="4"/>
     </row>
-    <row r="597" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A597" s="4"/>
+    <row r="597" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
@@ -16044,8 +15444,7 @@
       <c r="W597" s="4"/>
       <c r="X597" s="4"/>
     </row>
-    <row r="598" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A598" s="4"/>
+    <row r="598" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
@@ -16070,8 +15469,7 @@
       <c r="W598" s="4"/>
       <c r="X598" s="4"/>
     </row>
-    <row r="599" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A599" s="4"/>
+    <row r="599" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
@@ -16096,8 +15494,7 @@
       <c r="W599" s="4"/>
       <c r="X599" s="4"/>
     </row>
-    <row r="600" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A600" s="4"/>
+    <row r="600" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
       <c r="D600" s="4"/>
@@ -16122,8 +15519,7 @@
       <c r="W600" s="4"/>
       <c r="X600" s="4"/>
     </row>
-    <row r="601" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A601" s="4"/>
+    <row r="601" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
       <c r="D601" s="4"/>
@@ -16148,8 +15544,7 @@
       <c r="W601" s="4"/>
       <c r="X601" s="4"/>
     </row>
-    <row r="602" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A602" s="4"/>
+    <row r="602" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
       <c r="D602" s="4"/>
@@ -16174,8 +15569,7 @@
       <c r="W602" s="4"/>
       <c r="X602" s="4"/>
     </row>
-    <row r="603" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A603" s="4"/>
+    <row r="603" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
       <c r="D603" s="4"/>
@@ -16200,8 +15594,7 @@
       <c r="W603" s="4"/>
       <c r="X603" s="4"/>
     </row>
-    <row r="604" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A604" s="4"/>
+    <row r="604" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
       <c r="D604" s="4"/>
@@ -16226,8 +15619,7 @@
       <c r="W604" s="4"/>
       <c r="X604" s="4"/>
     </row>
-    <row r="605" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A605" s="4"/>
+    <row r="605" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
@@ -16252,8 +15644,7 @@
       <c r="W605" s="4"/>
       <c r="X605" s="4"/>
     </row>
-    <row r="606" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A606" s="4"/>
+    <row r="606" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
       <c r="D606" s="4"/>
@@ -16278,8 +15669,7 @@
       <c r="W606" s="4"/>
       <c r="X606" s="4"/>
     </row>
-    <row r="607" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A607" s="4"/>
+    <row r="607" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
       <c r="D607" s="4"/>
@@ -16304,8 +15694,7 @@
       <c r="W607" s="4"/>
       <c r="X607" s="4"/>
     </row>
-    <row r="608" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A608" s="4"/>
+    <row r="608" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
       <c r="D608" s="4"/>
@@ -16330,8 +15719,7 @@
       <c r="W608" s="4"/>
       <c r="X608" s="4"/>
     </row>
-    <row r="609" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A609" s="4"/>
+    <row r="609" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
       <c r="D609" s="4"/>
@@ -16356,8 +15744,7 @@
       <c r="W609" s="4"/>
       <c r="X609" s="4"/>
     </row>
-    <row r="610" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A610" s="4"/>
+    <row r="610" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
@@ -16382,8 +15769,7 @@
       <c r="W610" s="4"/>
       <c r="X610" s="4"/>
     </row>
-    <row r="611" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A611" s="4"/>
+    <row r="611" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
@@ -16408,8 +15794,7 @@
       <c r="W611" s="4"/>
       <c r="X611" s="4"/>
     </row>
-    <row r="612" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A612" s="4"/>
+    <row r="612" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
       <c r="D612" s="4"/>
@@ -16434,8 +15819,7 @@
       <c r="W612" s="4"/>
       <c r="X612" s="4"/>
     </row>
-    <row r="613" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A613" s="4"/>
+    <row r="613" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
       <c r="D613" s="4"/>
@@ -16460,8 +15844,7 @@
       <c r="W613" s="4"/>
       <c r="X613" s="4"/>
     </row>
-    <row r="614" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A614" s="4"/>
+    <row r="614" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
       <c r="D614" s="4"/>
@@ -16486,8 +15869,7 @@
       <c r="W614" s="4"/>
       <c r="X614" s="4"/>
     </row>
-    <row r="615" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A615" s="4"/>
+    <row r="615" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
       <c r="D615" s="4"/>
@@ -16512,8 +15894,7 @@
       <c r="W615" s="4"/>
       <c r="X615" s="4"/>
     </row>
-    <row r="616" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A616" s="4"/>
+    <row r="616" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
       <c r="D616" s="4"/>
@@ -16538,8 +15919,7 @@
       <c r="W616" s="4"/>
       <c r="X616" s="4"/>
     </row>
-    <row r="617" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A617" s="4"/>
+    <row r="617" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
       <c r="D617" s="4"/>
@@ -16564,8 +15944,7 @@
       <c r="W617" s="4"/>
       <c r="X617" s="4"/>
     </row>
-    <row r="618" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A618" s="4"/>
+    <row r="618" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
       <c r="D618" s="4"/>
@@ -16590,8 +15969,7 @@
       <c r="W618" s="4"/>
       <c r="X618" s="4"/>
     </row>
-    <row r="619" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A619" s="4"/>
+    <row r="619" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
       <c r="D619" s="4"/>
@@ -16616,8 +15994,7 @@
       <c r="W619" s="4"/>
       <c r="X619" s="4"/>
     </row>
-    <row r="620" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A620" s="4"/>
+    <row r="620" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
       <c r="D620" s="4"/>
@@ -16642,8 +16019,7 @@
       <c r="W620" s="4"/>
       <c r="X620" s="4"/>
     </row>
-    <row r="621" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A621" s="4"/>
+    <row r="621" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
       <c r="D621" s="4"/>
@@ -16668,8 +16044,7 @@
       <c r="W621" s="4"/>
       <c r="X621" s="4"/>
     </row>
-    <row r="622" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A622" s="4"/>
+    <row r="622" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
       <c r="D622" s="4"/>
@@ -16694,8 +16069,7 @@
       <c r="W622" s="4"/>
       <c r="X622" s="4"/>
     </row>
-    <row r="623" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A623" s="4"/>
+    <row r="623" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
       <c r="D623" s="4"/>
@@ -16720,8 +16094,7 @@
       <c r="W623" s="4"/>
       <c r="X623" s="4"/>
     </row>
-    <row r="624" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A624" s="4"/>
+    <row r="624" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
       <c r="D624" s="4"/>
@@ -16746,8 +16119,7 @@
       <c r="W624" s="4"/>
       <c r="X624" s="4"/>
     </row>
-    <row r="625" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A625" s="4"/>
+    <row r="625" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
       <c r="D625" s="4"/>
@@ -16772,8 +16144,7 @@
       <c r="W625" s="4"/>
       <c r="X625" s="4"/>
     </row>
-    <row r="626" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A626" s="4"/>
+    <row r="626" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
       <c r="D626" s="4"/>
@@ -16798,8 +16169,7 @@
       <c r="W626" s="4"/>
       <c r="X626" s="4"/>
     </row>
-    <row r="627" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A627" s="4"/>
+    <row r="627" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
       <c r="D627" s="4"/>
@@ -16824,8 +16194,7 @@
       <c r="W627" s="4"/>
       <c r="X627" s="4"/>
     </row>
-    <row r="628" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A628" s="4"/>
+    <row r="628" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
       <c r="D628" s="4"/>
@@ -16850,8 +16219,7 @@
       <c r="W628" s="4"/>
       <c r="X628" s="4"/>
     </row>
-    <row r="629" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A629" s="4"/>
+    <row r="629" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
       <c r="D629" s="4"/>
@@ -16876,8 +16244,7 @@
       <c r="W629" s="4"/>
       <c r="X629" s="4"/>
     </row>
-    <row r="630" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A630" s="4"/>
+    <row r="630" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
       <c r="D630" s="4"/>
@@ -16902,8 +16269,7 @@
       <c r="W630" s="4"/>
       <c r="X630" s="4"/>
     </row>
-    <row r="631" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A631" s="4"/>
+    <row r="631" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
       <c r="D631" s="4"/>
@@ -16928,8 +16294,7 @@
       <c r="W631" s="4"/>
       <c r="X631" s="4"/>
     </row>
-    <row r="632" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A632" s="4"/>
+    <row r="632" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
@@ -16954,8 +16319,7 @@
       <c r="W632" s="4"/>
       <c r="X632" s="4"/>
     </row>
-    <row r="633" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A633" s="4"/>
+    <row r="633" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
       <c r="D633" s="4"/>
@@ -16980,8 +16344,7 @@
       <c r="W633" s="4"/>
       <c r="X633" s="4"/>
     </row>
-    <row r="634" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A634" s="4"/>
+    <row r="634" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
       <c r="D634" s="4"/>
@@ -17006,8 +16369,7 @@
       <c r="W634" s="4"/>
       <c r="X634" s="4"/>
     </row>
-    <row r="635" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A635" s="4"/>
+    <row r="635" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
       <c r="D635" s="4"/>
@@ -17032,8 +16394,7 @@
       <c r="W635" s="4"/>
       <c r="X635" s="4"/>
     </row>
-    <row r="636" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A636" s="4"/>
+    <row r="636" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
@@ -17058,8 +16419,7 @@
       <c r="W636" s="4"/>
       <c r="X636" s="4"/>
     </row>
-    <row r="637" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A637" s="4"/>
+    <row r="637" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
       <c r="D637" s="4"/>
@@ -17084,8 +16444,7 @@
       <c r="W637" s="4"/>
       <c r="X637" s="4"/>
     </row>
-    <row r="638" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A638" s="4"/>
+    <row r="638" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
@@ -17110,8 +16469,7 @@
       <c r="W638" s="4"/>
       <c r="X638" s="4"/>
     </row>
-    <row r="639" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A639" s="4"/>
+    <row r="639" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
       <c r="D639" s="4"/>
@@ -17136,8 +16494,7 @@
       <c r="W639" s="4"/>
       <c r="X639" s="4"/>
     </row>
-    <row r="640" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A640" s="4"/>
+    <row r="640" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
       <c r="D640" s="4"/>
@@ -17162,8 +16519,7 @@
       <c r="W640" s="4"/>
       <c r="X640" s="4"/>
     </row>
-    <row r="641" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A641" s="4"/>
+    <row r="641" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
@@ -17188,8 +16544,7 @@
       <c r="W641" s="4"/>
       <c r="X641" s="4"/>
     </row>
-    <row r="642" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A642" s="4"/>
+    <row r="642" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
       <c r="D642" s="4"/>
@@ -17214,8 +16569,7 @@
       <c r="W642" s="4"/>
       <c r="X642" s="4"/>
     </row>
-    <row r="643" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A643" s="4"/>
+    <row r="643" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
@@ -17240,8 +16594,7 @@
       <c r="W643" s="4"/>
       <c r="X643" s="4"/>
     </row>
-    <row r="644" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A644" s="4"/>
+    <row r="644" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
       <c r="D644" s="4"/>
@@ -17266,8 +16619,7 @@
       <c r="W644" s="4"/>
       <c r="X644" s="4"/>
     </row>
-    <row r="645" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A645" s="4"/>
+    <row r="645" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
@@ -17292,8 +16644,7 @@
       <c r="W645" s="4"/>
       <c r="X645" s="4"/>
     </row>
-    <row r="646" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A646" s="4"/>
+    <row r="646" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
@@ -17318,8 +16669,7 @@
       <c r="W646" s="4"/>
       <c r="X646" s="4"/>
     </row>
-    <row r="647" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A647" s="4"/>
+    <row r="647" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
       <c r="D647" s="4"/>
@@ -17344,8 +16694,7 @@
       <c r="W647" s="4"/>
       <c r="X647" s="4"/>
     </row>
-    <row r="648" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A648" s="4"/>
+    <row r="648" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
@@ -17370,8 +16719,7 @@
       <c r="W648" s="4"/>
       <c r="X648" s="4"/>
     </row>
-    <row r="649" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A649" s="4"/>
+    <row r="649" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
       <c r="D649" s="4"/>
@@ -17396,8 +16744,7 @@
       <c r="W649" s="4"/>
       <c r="X649" s="4"/>
     </row>
-    <row r="650" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A650" s="4"/>
+    <row r="650" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
@@ -17422,8 +16769,7 @@
       <c r="W650" s="4"/>
       <c r="X650" s="4"/>
     </row>
-    <row r="651" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A651" s="4"/>
+    <row r="651" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
@@ -17448,8 +16794,7 @@
       <c r="W651" s="4"/>
       <c r="X651" s="4"/>
     </row>
-    <row r="652" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A652" s="4"/>
+    <row r="652" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
@@ -17474,8 +16819,7 @@
       <c r="W652" s="4"/>
       <c r="X652" s="4"/>
     </row>
-    <row r="653" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A653" s="4"/>
+    <row r="653" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
       <c r="D653" s="4"/>
@@ -17500,8 +16844,7 @@
       <c r="W653" s="4"/>
       <c r="X653" s="4"/>
     </row>
-    <row r="654" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A654" s="4"/>
+    <row r="654" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
       <c r="D654" s="4"/>
@@ -17526,8 +16869,7 @@
       <c r="W654" s="4"/>
       <c r="X654" s="4"/>
     </row>
-    <row r="655" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A655" s="4"/>
+    <row r="655" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
       <c r="D655" s="4"/>
@@ -17552,8 +16894,7 @@
       <c r="W655" s="4"/>
       <c r="X655" s="4"/>
     </row>
-    <row r="656" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A656" s="4"/>
+    <row r="656" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
@@ -17578,8 +16919,7 @@
       <c r="W656" s="4"/>
       <c r="X656" s="4"/>
     </row>
-    <row r="657" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A657" s="4"/>
+    <row r="657" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
@@ -17604,8 +16944,7 @@
       <c r="W657" s="4"/>
       <c r="X657" s="4"/>
     </row>
-    <row r="658" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A658" s="4"/>
+    <row r="658" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
@@ -17630,8 +16969,7 @@
       <c r="W658" s="4"/>
       <c r="X658" s="4"/>
     </row>
-    <row r="659" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A659" s="4"/>
+    <row r="659" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
@@ -17656,8 +16994,7 @@
       <c r="W659" s="4"/>
       <c r="X659" s="4"/>
     </row>
-    <row r="660" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A660" s="4"/>
+    <row r="660" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
@@ -17682,8 +17019,7 @@
       <c r="W660" s="4"/>
       <c r="X660" s="4"/>
     </row>
-    <row r="661" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A661" s="4"/>
+    <row r="661" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
@@ -17708,8 +17044,7 @@
       <c r="W661" s="4"/>
       <c r="X661" s="4"/>
     </row>
-    <row r="662" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A662" s="4"/>
+    <row r="662" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
@@ -17734,8 +17069,7 @@
       <c r="W662" s="4"/>
       <c r="X662" s="4"/>
     </row>
-    <row r="663" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A663" s="4"/>
+    <row r="663" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
       <c r="D663" s="4"/>
@@ -17760,8 +17094,7 @@
       <c r="W663" s="4"/>
       <c r="X663" s="4"/>
     </row>
-    <row r="664" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A664" s="4"/>
+    <row r="664" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
       <c r="D664" s="4"/>
@@ -17786,8 +17119,7 @@
       <c r="W664" s="4"/>
       <c r="X664" s="4"/>
     </row>
-    <row r="665" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A665" s="4"/>
+    <row r="665" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
@@ -17812,8 +17144,7 @@
       <c r="W665" s="4"/>
       <c r="X665" s="4"/>
     </row>
-    <row r="666" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A666" s="4"/>
+    <row r="666" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
@@ -17838,8 +17169,7 @@
       <c r="W666" s="4"/>
       <c r="X666" s="4"/>
     </row>
-    <row r="667" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A667" s="4"/>
+    <row r="667" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
@@ -17864,8 +17194,7 @@
       <c r="W667" s="4"/>
       <c r="X667" s="4"/>
     </row>
-    <row r="668" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A668" s="4"/>
+    <row r="668" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
@@ -17890,8 +17219,7 @@
       <c r="W668" s="4"/>
       <c r="X668" s="4"/>
     </row>
-    <row r="669" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A669" s="4"/>
+    <row r="669" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
@@ -17916,8 +17244,7 @@
       <c r="W669" s="4"/>
       <c r="X669" s="4"/>
     </row>
-    <row r="670" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A670" s="4"/>
+    <row r="670" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
@@ -17942,8 +17269,7 @@
       <c r="W670" s="4"/>
       <c r="X670" s="4"/>
     </row>
-    <row r="671" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A671" s="4"/>
+    <row r="671" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
@@ -17968,8 +17294,7 @@
       <c r="W671" s="4"/>
       <c r="X671" s="4"/>
     </row>
-    <row r="672" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A672" s="4"/>
+    <row r="672" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
@@ -17994,8 +17319,7 @@
       <c r="W672" s="4"/>
       <c r="X672" s="4"/>
     </row>
-    <row r="673" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A673" s="4"/>
+    <row r="673" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
@@ -18020,8 +17344,7 @@
       <c r="W673" s="4"/>
       <c r="X673" s="4"/>
     </row>
-    <row r="674" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A674" s="4"/>
+    <row r="674" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
@@ -18046,8 +17369,7 @@
       <c r="W674" s="4"/>
       <c r="X674" s="4"/>
     </row>
-    <row r="675" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A675" s="4"/>
+    <row r="675" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
       <c r="D675" s="4"/>
@@ -18072,8 +17394,7 @@
       <c r="W675" s="4"/>
       <c r="X675" s="4"/>
     </row>
-    <row r="676" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A676" s="4"/>
+    <row r="676" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
       <c r="D676" s="4"/>
@@ -18098,8 +17419,7 @@
       <c r="W676" s="4"/>
       <c r="X676" s="4"/>
     </row>
-    <row r="677" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A677" s="4"/>
+    <row r="677" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
       <c r="D677" s="4"/>
@@ -18124,8 +17444,7 @@
       <c r="W677" s="4"/>
       <c r="X677" s="4"/>
     </row>
-    <row r="678" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A678" s="4"/>
+    <row r="678" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
@@ -18150,8 +17469,7 @@
       <c r="W678" s="4"/>
       <c r="X678" s="4"/>
     </row>
-    <row r="679" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A679" s="4"/>
+    <row r="679" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
       <c r="D679" s="4"/>
@@ -18176,8 +17494,7 @@
       <c r="W679" s="4"/>
       <c r="X679" s="4"/>
     </row>
-    <row r="680" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A680" s="4"/>
+    <row r="680" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
       <c r="D680" s="4"/>
@@ -18202,8 +17519,7 @@
       <c r="W680" s="4"/>
       <c r="X680" s="4"/>
     </row>
-    <row r="681" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A681" s="4"/>
+    <row r="681" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
@@ -18228,8 +17544,7 @@
       <c r="W681" s="4"/>
       <c r="X681" s="4"/>
     </row>
-    <row r="682" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A682" s="4"/>
+    <row r="682" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
       <c r="D682" s="4"/>
@@ -18254,8 +17569,7 @@
       <c r="W682" s="4"/>
       <c r="X682" s="4"/>
     </row>
-    <row r="683" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A683" s="4"/>
+    <row r="683" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
       <c r="D683" s="4"/>
@@ -18280,8 +17594,7 @@
       <c r="W683" s="4"/>
       <c r="X683" s="4"/>
     </row>
-    <row r="684" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A684" s="4"/>
+    <row r="684" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
       <c r="D684" s="4"/>
@@ -18306,8 +17619,7 @@
       <c r="W684" s="4"/>
       <c r="X684" s="4"/>
     </row>
-    <row r="685" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A685" s="4"/>
+    <row r="685" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
@@ -18332,8 +17644,7 @@
       <c r="W685" s="4"/>
       <c r="X685" s="4"/>
     </row>
-    <row r="686" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A686" s="4"/>
+    <row r="686" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
@@ -18358,8 +17669,7 @@
       <c r="W686" s="4"/>
       <c r="X686" s="4"/>
     </row>
-    <row r="687" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A687" s="4"/>
+    <row r="687" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
@@ -18384,8 +17694,7 @@
       <c r="W687" s="4"/>
       <c r="X687" s="4"/>
     </row>
-    <row r="688" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A688" s="4"/>
+    <row r="688" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
@@ -18410,8 +17719,7 @@
       <c r="W688" s="4"/>
       <c r="X688" s="4"/>
     </row>
-    <row r="689" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A689" s="4"/>
+    <row r="689" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
       <c r="D689" s="4"/>
@@ -18436,8 +17744,7 @@
       <c r="W689" s="4"/>
       <c r="X689" s="4"/>
     </row>
-    <row r="690" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A690" s="4"/>
+    <row r="690" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
@@ -18462,8 +17769,7 @@
       <c r="W690" s="4"/>
       <c r="X690" s="4"/>
     </row>
-    <row r="691" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A691" s="4"/>
+    <row r="691" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
       <c r="D691" s="4"/>
@@ -18488,8 +17794,7 @@
       <c r="W691" s="4"/>
       <c r="X691" s="4"/>
     </row>
-    <row r="692" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A692" s="4"/>
+    <row r="692" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
       <c r="D692" s="4"/>
@@ -18514,8 +17819,7 @@
       <c r="W692" s="4"/>
       <c r="X692" s="4"/>
     </row>
-    <row r="693" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A693" s="4"/>
+    <row r="693" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
       <c r="D693" s="4"/>
@@ -18540,8 +17844,7 @@
       <c r="W693" s="4"/>
       <c r="X693" s="4"/>
     </row>
-    <row r="694" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A694" s="4"/>
+    <row r="694" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
@@ -18566,8 +17869,7 @@
       <c r="W694" s="4"/>
       <c r="X694" s="4"/>
     </row>
-    <row r="695" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A695" s="4"/>
+    <row r="695" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
       <c r="D695" s="4"/>
@@ -18592,8 +17894,7 @@
       <c r="W695" s="4"/>
       <c r="X695" s="4"/>
     </row>
-    <row r="696" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A696" s="4"/>
+    <row r="696" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
@@ -18618,8 +17919,7 @@
       <c r="W696" s="4"/>
       <c r="X696" s="4"/>
     </row>
-    <row r="697" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A697" s="4"/>
+    <row r="697" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
@@ -18644,8 +17944,7 @@
       <c r="W697" s="4"/>
       <c r="X697" s="4"/>
     </row>
-    <row r="698" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A698" s="4"/>
+    <row r="698" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
       <c r="D698" s="4"/>
@@ -18670,8 +17969,7 @@
       <c r="W698" s="4"/>
       <c r="X698" s="4"/>
     </row>
-    <row r="699" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A699" s="4"/>
+    <row r="699" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
       <c r="D699" s="4"/>
@@ -18696,8 +17994,7 @@
       <c r="W699" s="4"/>
       <c r="X699" s="4"/>
     </row>
-    <row r="700" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A700" s="4"/>
+    <row r="700" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
       <c r="D700" s="4"/>
@@ -18722,8 +18019,7 @@
       <c r="W700" s="4"/>
       <c r="X700" s="4"/>
     </row>
-    <row r="701" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A701" s="4"/>
+    <row r="701" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
       <c r="D701" s="4"/>
@@ -18748,8 +18044,7 @@
       <c r="W701" s="4"/>
       <c r="X701" s="4"/>
     </row>
-    <row r="702" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A702" s="4"/>
+    <row r="702" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
       <c r="D702" s="4"/>
@@ -18774,8 +18069,7 @@
       <c r="W702" s="4"/>
       <c r="X702" s="4"/>
     </row>
-    <row r="703" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A703" s="4"/>
+    <row r="703" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
       <c r="D703" s="4"/>
@@ -18800,8 +18094,7 @@
       <c r="W703" s="4"/>
       <c r="X703" s="4"/>
     </row>
-    <row r="704" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A704" s="4"/>
+    <row r="704" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
@@ -18826,8 +18119,7 @@
       <c r="W704" s="4"/>
       <c r="X704" s="4"/>
     </row>
-    <row r="705" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A705" s="4"/>
+    <row r="705" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
@@ -18852,8 +18144,7 @@
       <c r="W705" s="4"/>
       <c r="X705" s="4"/>
     </row>
-    <row r="706" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A706" s="4"/>
+    <row r="706" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
       <c r="D706" s="4"/>
@@ -18878,8 +18169,7 @@
       <c r="W706" s="4"/>
       <c r="X706" s="4"/>
     </row>
-    <row r="707" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A707" s="4"/>
+    <row r="707" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
       <c r="D707" s="4"/>
@@ -18904,8 +18194,7 @@
       <c r="W707" s="4"/>
       <c r="X707" s="4"/>
     </row>
-    <row r="708" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A708" s="4"/>
+    <row r="708" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
       <c r="D708" s="4"/>
@@ -18930,8 +18219,7 @@
       <c r="W708" s="4"/>
       <c r="X708" s="4"/>
     </row>
-    <row r="709" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A709" s="4"/>
+    <row r="709" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
       <c r="D709" s="4"/>
@@ -18956,8 +18244,7 @@
       <c r="W709" s="4"/>
       <c r="X709" s="4"/>
     </row>
-    <row r="710" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A710" s="4"/>
+    <row r="710" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
       <c r="D710" s="4"/>
@@ -18982,8 +18269,7 @@
       <c r="W710" s="4"/>
       <c r="X710" s="4"/>
     </row>
-    <row r="711" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A711" s="4"/>
+    <row r="711" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
       <c r="D711" s="4"/>
@@ -19008,8 +18294,7 @@
       <c r="W711" s="4"/>
       <c r="X711" s="4"/>
     </row>
-    <row r="712" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A712" s="4"/>
+    <row r="712" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
@@ -19034,8 +18319,7 @@
       <c r="W712" s="4"/>
       <c r="X712" s="4"/>
     </row>
-    <row r="713" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A713" s="4"/>
+    <row r="713" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
@@ -19060,8 +18344,7 @@
       <c r="W713" s="4"/>
       <c r="X713" s="4"/>
     </row>
-    <row r="714" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A714" s="4"/>
+    <row r="714" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
@@ -19086,8 +18369,7 @@
       <c r="W714" s="4"/>
       <c r="X714" s="4"/>
     </row>
-    <row r="715" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A715" s="4"/>
+    <row r="715" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
       <c r="D715" s="4"/>
@@ -19112,8 +18394,7 @@
       <c r="W715" s="4"/>
       <c r="X715" s="4"/>
     </row>
-    <row r="716" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A716" s="4"/>
+    <row r="716" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
       <c r="D716" s="4"/>
@@ -19138,8 +18419,7 @@
       <c r="W716" s="4"/>
       <c r="X716" s="4"/>
     </row>
-    <row r="717" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A717" s="4"/>
+    <row r="717" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
       <c r="D717" s="4"/>
@@ -19164,8 +18444,7 @@
       <c r="W717" s="4"/>
       <c r="X717" s="4"/>
     </row>
-    <row r="718" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A718" s="4"/>
+    <row r="718" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
       <c r="D718" s="4"/>
@@ -19190,8 +18469,7 @@
       <c r="W718" s="4"/>
       <c r="X718" s="4"/>
     </row>
-    <row r="719" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A719" s="4"/>
+    <row r="719" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
       <c r="D719" s="4"/>
@@ -19216,8 +18494,7 @@
       <c r="W719" s="4"/>
       <c r="X719" s="4"/>
     </row>
-    <row r="720" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A720" s="4"/>
+    <row r="720" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
       <c r="D720" s="4"/>
@@ -19242,8 +18519,7 @@
       <c r="W720" s="4"/>
       <c r="X720" s="4"/>
     </row>
-    <row r="721" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A721" s="4"/>
+    <row r="721" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
       <c r="D721" s="4"/>
@@ -19268,8 +18544,7 @@
       <c r="W721" s="4"/>
       <c r="X721" s="4"/>
     </row>
-    <row r="722" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A722" s="4"/>
+    <row r="722" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
       <c r="D722" s="4"/>
@@ -19294,8 +18569,7 @@
       <c r="W722" s="4"/>
       <c r="X722" s="4"/>
     </row>
-    <row r="723" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A723" s="4"/>
+    <row r="723" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
       <c r="D723" s="4"/>
@@ -19320,8 +18594,7 @@
       <c r="W723" s="4"/>
       <c r="X723" s="4"/>
     </row>
-    <row r="724" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A724" s="4"/>
+    <row r="724" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
       <c r="D724" s="4"/>
@@ -19346,8 +18619,7 @@
       <c r="W724" s="4"/>
       <c r="X724" s="4"/>
     </row>
-    <row r="725" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A725" s="4"/>
+    <row r="725" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
       <c r="D725" s="4"/>
@@ -19372,8 +18644,7 @@
       <c r="W725" s="4"/>
       <c r="X725" s="4"/>
     </row>
-    <row r="726" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A726" s="4"/>
+    <row r="726" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
       <c r="D726" s="4"/>
@@ -19398,8 +18669,7 @@
       <c r="W726" s="4"/>
       <c r="X726" s="4"/>
     </row>
-    <row r="727" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A727" s="4"/>
+    <row r="727" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
       <c r="D727" s="4"/>
@@ -19424,8 +18694,7 @@
       <c r="W727" s="4"/>
       <c r="X727" s="4"/>
     </row>
-    <row r="728" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A728" s="4"/>
+    <row r="728" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
       <c r="D728" s="4"/>
@@ -19450,8 +18719,7 @@
       <c r="W728" s="4"/>
       <c r="X728" s="4"/>
     </row>
-    <row r="729" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A729" s="4"/>
+    <row r="729" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
       <c r="D729" s="4"/>
@@ -19476,8 +18744,7 @@
       <c r="W729" s="4"/>
       <c r="X729" s="4"/>
     </row>
-    <row r="730" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A730" s="4"/>
+    <row r="730" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
       <c r="D730" s="4"/>
@@ -19502,8 +18769,7 @@
       <c r="W730" s="4"/>
       <c r="X730" s="4"/>
     </row>
-    <row r="731" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A731" s="4"/>
+    <row r="731" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
       <c r="D731" s="4"/>
@@ -19528,8 +18794,7 @@
       <c r="W731" s="4"/>
       <c r="X731" s="4"/>
     </row>
-    <row r="732" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A732" s="4"/>
+    <row r="732" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
       <c r="D732" s="4"/>
@@ -19554,8 +18819,7 @@
       <c r="W732" s="4"/>
       <c r="X732" s="4"/>
     </row>
-    <row r="733" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A733" s="4"/>
+    <row r="733" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
       <c r="D733" s="4"/>
@@ -19580,8 +18844,7 @@
       <c r="W733" s="4"/>
       <c r="X733" s="4"/>
     </row>
-    <row r="734" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A734" s="4"/>
+    <row r="734" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
       <c r="D734" s="4"/>
@@ -19606,8 +18869,7 @@
       <c r="W734" s="4"/>
       <c r="X734" s="4"/>
     </row>
-    <row r="735" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A735" s="4"/>
+    <row r="735" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
       <c r="D735" s="4"/>
@@ -19632,8 +18894,7 @@
       <c r="W735" s="4"/>
       <c r="X735" s="4"/>
     </row>
-    <row r="736" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A736" s="4"/>
+    <row r="736" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
       <c r="D736" s="4"/>
@@ -19658,8 +18919,7 @@
       <c r="W736" s="4"/>
       <c r="X736" s="4"/>
     </row>
-    <row r="737" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A737" s="4"/>
+    <row r="737" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
       <c r="D737" s="4"/>
@@ -19684,8 +18944,7 @@
       <c r="W737" s="4"/>
       <c r="X737" s="4"/>
     </row>
-    <row r="738" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A738" s="4"/>
+    <row r="738" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
       <c r="D738" s="4"/>
@@ -19710,8 +18969,7 @@
       <c r="W738" s="4"/>
       <c r="X738" s="4"/>
     </row>
-    <row r="739" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A739" s="4"/>
+    <row r="739" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
       <c r="D739" s="4"/>
@@ -19736,8 +18994,7 @@
       <c r="W739" s="4"/>
       <c r="X739" s="4"/>
     </row>
-    <row r="740" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A740" s="4"/>
+    <row r="740" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
       <c r="D740" s="4"/>
@@ -19762,8 +19019,7 @@
       <c r="W740" s="4"/>
       <c r="X740" s="4"/>
     </row>
-    <row r="741" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A741" s="4"/>
+    <row r="741" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
       <c r="D741" s="4"/>
@@ -19788,8 +19044,7 @@
       <c r="W741" s="4"/>
       <c r="X741" s="4"/>
     </row>
-    <row r="742" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A742" s="4"/>
+    <row r="742" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
       <c r="D742" s="4"/>
@@ -19814,8 +19069,7 @@
       <c r="W742" s="4"/>
       <c r="X742" s="4"/>
     </row>
-    <row r="743" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A743" s="4"/>
+    <row r="743" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
       <c r="D743" s="4"/>
@@ -19840,8 +19094,7 @@
       <c r="W743" s="4"/>
       <c r="X743" s="4"/>
     </row>
-    <row r="744" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A744" s="4"/>
+    <row r="744" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
       <c r="D744" s="4"/>
@@ -19866,8 +19119,7 @@
       <c r="W744" s="4"/>
       <c r="X744" s="4"/>
     </row>
-    <row r="745" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A745" s="4"/>
+    <row r="745" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
       <c r="D745" s="4"/>
@@ -19892,8 +19144,7 @@
       <c r="W745" s="4"/>
       <c r="X745" s="4"/>
     </row>
-    <row r="746" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A746" s="4"/>
+    <row r="746" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
       <c r="D746" s="4"/>
@@ -19918,8 +19169,7 @@
       <c r="W746" s="4"/>
       <c r="X746" s="4"/>
     </row>
-    <row r="747" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A747" s="4"/>
+    <row r="747" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
       <c r="D747" s="4"/>
@@ -19944,8 +19194,7 @@
       <c r="W747" s="4"/>
       <c r="X747" s="4"/>
     </row>
-    <row r="748" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A748" s="4"/>
+    <row r="748" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
       <c r="D748" s="4"/>
@@ -19970,8 +19219,7 @@
       <c r="W748" s="4"/>
       <c r="X748" s="4"/>
     </row>
-    <row r="749" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A749" s="4"/>
+    <row r="749" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
       <c r="D749" s="4"/>
@@ -19996,8 +19244,7 @@
       <c r="W749" s="4"/>
       <c r="X749" s="4"/>
     </row>
-    <row r="750" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A750" s="4"/>
+    <row r="750" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
       <c r="D750" s="4"/>
@@ -20022,8 +19269,7 @@
       <c r="W750" s="4"/>
       <c r="X750" s="4"/>
     </row>
-    <row r="751" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A751" s="4"/>
+    <row r="751" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
       <c r="D751" s="4"/>
@@ -20048,8 +19294,7 @@
       <c r="W751" s="4"/>
       <c r="X751" s="4"/>
     </row>
-    <row r="752" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A752" s="4"/>
+    <row r="752" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
       <c r="D752" s="4"/>
@@ -20074,8 +19319,7 @@
       <c r="W752" s="4"/>
       <c r="X752" s="4"/>
     </row>
-    <row r="753" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A753" s="4"/>
+    <row r="753" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
       <c r="D753" s="4"/>
@@ -20100,8 +19344,7 @@
       <c r="W753" s="4"/>
       <c r="X753" s="4"/>
     </row>
-    <row r="754" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A754" s="4"/>
+    <row r="754" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
       <c r="D754" s="4"/>
@@ -20126,8 +19369,7 @@
       <c r="W754" s="4"/>
       <c r="X754" s="4"/>
     </row>
-    <row r="755" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A755" s="4"/>
+    <row r="755" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
       <c r="D755" s="4"/>
@@ -20152,8 +19394,7 @@
       <c r="W755" s="4"/>
       <c r="X755" s="4"/>
     </row>
-    <row r="756" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A756" s="4"/>
+    <row r="756" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
       <c r="D756" s="4"/>
@@ -20178,8 +19419,7 @@
       <c r="W756" s="4"/>
       <c r="X756" s="4"/>
     </row>
-    <row r="757" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A757" s="4"/>
+    <row r="757" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
       <c r="D757" s="4"/>
@@ -20204,8 +19444,7 @@
       <c r="W757" s="4"/>
       <c r="X757" s="4"/>
     </row>
-    <row r="758" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A758" s="4"/>
+    <row r="758" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
       <c r="D758" s="4"/>
@@ -20230,8 +19469,7 @@
       <c r="W758" s="4"/>
       <c r="X758" s="4"/>
     </row>
-    <row r="759" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A759" s="4"/>
+    <row r="759" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
       <c r="D759" s="4"/>
@@ -20256,8 +19494,7 @@
       <c r="W759" s="4"/>
       <c r="X759" s="4"/>
     </row>
-    <row r="760" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A760" s="4"/>
+    <row r="760" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
       <c r="D760" s="4"/>
@@ -20282,8 +19519,7 @@
       <c r="W760" s="4"/>
       <c r="X760" s="4"/>
     </row>
-    <row r="761" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A761" s="4"/>
+    <row r="761" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
       <c r="D761" s="4"/>
@@ -20308,8 +19544,7 @@
       <c r="W761" s="4"/>
       <c r="X761" s="4"/>
     </row>
-    <row r="762" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A762" s="4"/>
+    <row r="762" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
       <c r="D762" s="4"/>
@@ -20334,8 +19569,7 @@
       <c r="W762" s="4"/>
       <c r="X762" s="4"/>
     </row>
-    <row r="763" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A763" s="4"/>
+    <row r="763" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
       <c r="D763" s="4"/>
@@ -20360,8 +19594,7 @@
       <c r="W763" s="4"/>
       <c r="X763" s="4"/>
     </row>
-    <row r="764" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A764" s="4"/>
+    <row r="764" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
       <c r="D764" s="4"/>
@@ -20386,8 +19619,7 @@
       <c r="W764" s="4"/>
       <c r="X764" s="4"/>
     </row>
-    <row r="765" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A765" s="4"/>
+    <row r="765" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
       <c r="D765" s="4"/>
@@ -20412,8 +19644,7 @@
       <c r="W765" s="4"/>
       <c r="X765" s="4"/>
     </row>
-    <row r="766" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A766" s="4"/>
+    <row r="766" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
       <c r="D766" s="4"/>
@@ -20438,8 +19669,7 @@
       <c r="W766" s="4"/>
       <c r="X766" s="4"/>
     </row>
-    <row r="767" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A767" s="4"/>
+    <row r="767" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
       <c r="D767" s="4"/>
@@ -20464,8 +19694,7 @@
       <c r="W767" s="4"/>
       <c r="X767" s="4"/>
     </row>
-    <row r="768" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A768" s="4"/>
+    <row r="768" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
       <c r="D768" s="4"/>
@@ -20490,8 +19719,7 @@
       <c r="W768" s="4"/>
       <c r="X768" s="4"/>
     </row>
-    <row r="769" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A769" s="4"/>
+    <row r="769" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
       <c r="D769" s="4"/>
@@ -20516,8 +19744,7 @@
       <c r="W769" s="4"/>
       <c r="X769" s="4"/>
     </row>
-    <row r="770" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A770" s="4"/>
+    <row r="770" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
       <c r="D770" s="4"/>
@@ -20542,8 +19769,7 @@
       <c r="W770" s="4"/>
       <c r="X770" s="4"/>
     </row>
-    <row r="771" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A771" s="4"/>
+    <row r="771" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
       <c r="D771" s="4"/>
@@ -20568,8 +19794,7 @@
       <c r="W771" s="4"/>
       <c r="X771" s="4"/>
     </row>
-    <row r="772" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A772" s="4"/>
+    <row r="772" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
       <c r="D772" s="4"/>
@@ -20594,8 +19819,7 @@
       <c r="W772" s="4"/>
       <c r="X772" s="4"/>
     </row>
-    <row r="773" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A773" s="4"/>
+    <row r="773" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
       <c r="D773" s="4"/>
@@ -20620,8 +19844,7 @@
       <c r="W773" s="4"/>
       <c r="X773" s="4"/>
     </row>
-    <row r="774" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A774" s="4"/>
+    <row r="774" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
       <c r="D774" s="4"/>
@@ -20646,8 +19869,7 @@
       <c r="W774" s="4"/>
       <c r="X774" s="4"/>
     </row>
-    <row r="775" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A775" s="4"/>
+    <row r="775" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
       <c r="D775" s="4"/>
@@ -20672,8 +19894,7 @@
       <c r="W775" s="4"/>
       <c r="X775" s="4"/>
     </row>
-    <row r="776" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A776" s="4"/>
+    <row r="776" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
       <c r="D776" s="4"/>
@@ -20698,8 +19919,7 @@
       <c r="W776" s="4"/>
       <c r="X776" s="4"/>
     </row>
-    <row r="777" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A777" s="4"/>
+    <row r="777" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
       <c r="D777" s="4"/>
@@ -20724,8 +19944,7 @@
       <c r="W777" s="4"/>
       <c r="X777" s="4"/>
     </row>
-    <row r="778" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A778" s="4"/>
+    <row r="778" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
       <c r="D778" s="4"/>
@@ -20750,8 +19969,7 @@
       <c r="W778" s="4"/>
       <c r="X778" s="4"/>
     </row>
-    <row r="779" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A779" s="4"/>
+    <row r="779" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
       <c r="D779" s="4"/>
@@ -20776,8 +19994,7 @@
       <c r="W779" s="4"/>
       <c r="X779" s="4"/>
     </row>
-    <row r="780" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A780" s="4"/>
+    <row r="780" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
       <c r="D780" s="4"/>
@@ -20802,8 +20019,7 @@
       <c r="W780" s="4"/>
       <c r="X780" s="4"/>
     </row>
-    <row r="781" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A781" s="4"/>
+    <row r="781" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
       <c r="D781" s="4"/>
@@ -20828,8 +20044,7 @@
       <c r="W781" s="4"/>
       <c r="X781" s="4"/>
     </row>
-    <row r="782" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A782" s="4"/>
+    <row r="782" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
       <c r="D782" s="4"/>
@@ -20854,8 +20069,7 @@
       <c r="W782" s="4"/>
       <c r="X782" s="4"/>
     </row>
-    <row r="783" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A783" s="4"/>
+    <row r="783" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
       <c r="D783" s="4"/>
@@ -20880,8 +20094,7 @@
       <c r="W783" s="4"/>
       <c r="X783" s="4"/>
     </row>
-    <row r="784" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A784" s="4"/>
+    <row r="784" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
       <c r="D784" s="4"/>
@@ -20906,8 +20119,7 @@
       <c r="W784" s="4"/>
       <c r="X784" s="4"/>
     </row>
-    <row r="785" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A785" s="4"/>
+    <row r="785" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
       <c r="D785" s="4"/>
@@ -20932,8 +20144,7 @@
       <c r="W785" s="4"/>
       <c r="X785" s="4"/>
     </row>
-    <row r="786" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A786" s="4"/>
+    <row r="786" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
       <c r="D786" s="4"/>
@@ -20958,8 +20169,7 @@
       <c r="W786" s="4"/>
       <c r="X786" s="4"/>
     </row>
-    <row r="787" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A787" s="4"/>
+    <row r="787" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
       <c r="D787" s="4"/>
@@ -20984,8 +20194,7 @@
       <c r="W787" s="4"/>
       <c r="X787" s="4"/>
     </row>
-    <row r="788" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A788" s="4"/>
+    <row r="788" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
       <c r="D788" s="4"/>
@@ -21010,8 +20219,7 @@
       <c r="W788" s="4"/>
       <c r="X788" s="4"/>
     </row>
-    <row r="789" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A789" s="4"/>
+    <row r="789" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
       <c r="D789" s="4"/>
@@ -21036,8 +20244,7 @@
       <c r="W789" s="4"/>
       <c r="X789" s="4"/>
     </row>
-    <row r="790" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A790" s="4"/>
+    <row r="790" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
       <c r="D790" s="4"/>
@@ -21062,8 +20269,7 @@
       <c r="W790" s="4"/>
       <c r="X790" s="4"/>
     </row>
-    <row r="791" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A791" s="4"/>
+    <row r="791" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
       <c r="D791" s="4"/>
@@ -21088,8 +20294,7 @@
       <c r="W791" s="4"/>
       <c r="X791" s="4"/>
     </row>
-    <row r="792" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A792" s="4"/>
+    <row r="792" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
       <c r="D792" s="4"/>
@@ -21114,8 +20319,7 @@
       <c r="W792" s="4"/>
       <c r="X792" s="4"/>
     </row>
-    <row r="793" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A793" s="4"/>
+    <row r="793" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
       <c r="D793" s="4"/>
@@ -21140,8 +20344,7 @@
       <c r="W793" s="4"/>
       <c r="X793" s="4"/>
     </row>
-    <row r="794" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A794" s="4"/>
+    <row r="794" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
       <c r="D794" s="4"/>
@@ -21166,8 +20369,7 @@
       <c r="W794" s="4"/>
       <c r="X794" s="4"/>
     </row>
-    <row r="795" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A795" s="4"/>
+    <row r="795" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
       <c r="D795" s="4"/>
@@ -21192,8 +20394,7 @@
       <c r="W795" s="4"/>
       <c r="X795" s="4"/>
     </row>
-    <row r="796" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A796" s="4"/>
+    <row r="796" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
       <c r="D796" s="4"/>
@@ -21218,8 +20419,7 @@
       <c r="W796" s="4"/>
       <c r="X796" s="4"/>
     </row>
-    <row r="797" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A797" s="4"/>
+    <row r="797" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
       <c r="D797" s="4"/>
@@ -21244,8 +20444,7 @@
       <c r="W797" s="4"/>
       <c r="X797" s="4"/>
     </row>
-    <row r="798" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A798" s="4"/>
+    <row r="798" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
       <c r="D798" s="4"/>
@@ -21270,8 +20469,7 @@
       <c r="W798" s="4"/>
       <c r="X798" s="4"/>
     </row>
-    <row r="799" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A799" s="4"/>
+    <row r="799" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
       <c r="D799" s="4"/>
@@ -21296,8 +20494,7 @@
       <c r="W799" s="4"/>
       <c r="X799" s="4"/>
     </row>
-    <row r="800" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A800" s="4"/>
+    <row r="800" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
       <c r="D800" s="4"/>
@@ -21322,8 +20519,7 @@
       <c r="W800" s="4"/>
       <c r="X800" s="4"/>
     </row>
-    <row r="801" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A801" s="4"/>
+    <row r="801" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
       <c r="D801" s="4"/>
@@ -21348,8 +20544,7 @@
       <c r="W801" s="4"/>
       <c r="X801" s="4"/>
     </row>
-    <row r="802" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A802" s="4"/>
+    <row r="802" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
       <c r="D802" s="4"/>
@@ -21374,8 +20569,7 @@
       <c r="W802" s="4"/>
       <c r="X802" s="4"/>
     </row>
-    <row r="803" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A803" s="4"/>
+    <row r="803" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
       <c r="D803" s="4"/>
@@ -21400,8 +20594,7 @@
       <c r="W803" s="4"/>
       <c r="X803" s="4"/>
     </row>
-    <row r="804" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A804" s="4"/>
+    <row r="804" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
       <c r="D804" s="4"/>
@@ -21426,8 +20619,7 @@
       <c r="W804" s="4"/>
       <c r="X804" s="4"/>
     </row>
-    <row r="805" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A805" s="4"/>
+    <row r="805" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
       <c r="D805" s="4"/>
@@ -21452,8 +20644,7 @@
       <c r="W805" s="4"/>
       <c r="X805" s="4"/>
     </row>
-    <row r="806" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A806" s="4"/>
+    <row r="806" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
       <c r="D806" s="4"/>
@@ -21478,34 +20669,8 @@
       <c r="W806" s="4"/>
       <c r="X806" s="4"/>
     </row>
-    <row r="807" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A807" s="4"/>
-      <c r="B807" s="4"/>
-      <c r="C807" s="4"/>
-      <c r="D807" s="4"/>
-      <c r="E807" s="4"/>
-      <c r="F807" s="4"/>
-      <c r="G807" s="4"/>
-      <c r="H807" s="4"/>
-      <c r="I807" s="4"/>
-      <c r="J807" s="4"/>
-      <c r="K807" s="4"/>
-      <c r="L807" s="4"/>
-      <c r="M807" s="4"/>
-      <c r="N807" s="4"/>
-      <c r="O807" s="4"/>
-      <c r="P807" s="4"/>
-      <c r="Q807" s="4"/>
-      <c r="R807" s="4"/>
-      <c r="S807" s="4"/>
-      <c r="T807" s="4"/>
-      <c r="U807" s="4"/>
-      <c r="V807" s="4"/>
-      <c r="W807" s="4"/>
-      <c r="X807" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E8" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:E7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
